--- a/routing_project2/Simulations.xlsx
+++ b/routing_project2/Simulations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jokubas/Desktop/ADHSN/ahsn_groupjj/routing_project2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728E5B27-8684-BB45-A77A-FA784D31AAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C997D8E-EB1B-E848-97A9-3B607E19C716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3100" yWindow="1680" windowWidth="27640" windowHeight="16940" xr2:uid="{5B0FB570-53D5-CC45-9C8C-CFBFA881E8D1}"/>
   </bookViews>
@@ -1089,11 +1089,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668B5660-EE48-1D43-A41B-2C53A281025C}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:R830"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L634" sqref="L634"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="F166" sqref="F166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1131,7 +1130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10</v>
       </c>
@@ -1158,10 +1157,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
@@ -1175,7 +1174,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1189,7 +1188,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1203,7 +1202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1217,7 +1216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1231,7 +1230,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -1240,12 +1239,12 @@
       </c>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1259,7 +1258,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1273,7 +1272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1287,7 +1286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1301,7 +1300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1315,7 +1314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1329,12 +1328,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1348,7 +1347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1362,7 +1361,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1376,7 +1375,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1404,7 +1403,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1418,12 +1417,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -1437,7 +1436,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,7 +1450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -1465,7 +1464,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,7 +1478,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -1493,7 +1492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -1507,7 +1506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -1521,7 +1520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -1535,7 +1534,7 @@
         <v>94.952681388012607</v>
       </c>
     </row>
-    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
@@ -1549,7 +1548,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -1563,12 +1562,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -1582,10 +1581,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>10</v>
       </c>
@@ -1612,10 +1611,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M39" s="2"/>
     </row>
-    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
@@ -1629,7 +1628,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
@@ -1643,7 +1642,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
@@ -1657,7 +1656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
@@ -1671,7 +1670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>9</v>
       </c>
@@ -1685,7 +1684,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -1694,12 +1693,12 @@
       </c>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="2"/>
     </row>
-    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>10</v>
       </c>
@@ -1713,7 +1712,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>11</v>
       </c>
@@ -1727,7 +1726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>12</v>
       </c>
@@ -1741,7 +1740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>13</v>
       </c>
@@ -1755,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>14</v>
       </c>
@@ -1769,7 +1768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -1783,12 +1782,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="2"/>
     </row>
-    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>16</v>
       </c>
@@ -1802,7 +1801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>17</v>
       </c>
@@ -1816,7 +1815,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>19</v>
       </c>
@@ -1830,7 +1829,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>20</v>
       </c>
@@ -1858,7 +1857,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>22</v>
       </c>
@@ -1872,12 +1871,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="2"/>
     </row>
-    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>5</v>
       </c>
@@ -1891,7 +1890,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>23</v>
       </c>
@@ -1905,7 +1904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>24</v>
       </c>
@@ -1919,7 +1918,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>25</v>
       </c>
@@ -1933,7 +1932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>26</v>
       </c>
@@ -1947,7 +1946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>27</v>
       </c>
@@ -1961,7 +1960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>28</v>
       </c>
@@ -1975,7 +1974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>29</v>
       </c>
@@ -1989,7 +1988,7 @@
         <v>96.749521988527704</v>
       </c>
     </row>
-    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>30</v>
       </c>
@@ -2003,7 +2002,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>31</v>
       </c>
@@ -2017,12 +2016,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="2"/>
     </row>
-    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>33</v>
       </c>
@@ -2036,10 +2035,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M73" s="2"/>
     </row>
-    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>10</v>
       </c>
@@ -2066,10 +2065,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M75" s="2"/>
     </row>
-    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>34</v>
       </c>
@@ -2083,7 +2082,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -2097,7 +2096,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -2111,7 +2110,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -2125,7 +2124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -2139,7 +2138,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>62</v>
       </c>
@@ -2148,10 +2147,10 @@
       </c>
       <c r="M81" s="2"/>
     </row>
-    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M82" s="2"/>
     </row>
-    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -2165,7 +2164,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -2179,7 +2178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>12</v>
       </c>
@@ -2193,7 +2192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>13</v>
       </c>
@@ -2207,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -2221,7 +2220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>15</v>
       </c>
@@ -2235,10 +2234,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M89" s="2"/>
     </row>
-    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>16</v>
       </c>
@@ -2252,7 +2251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>17</v>
       </c>
@@ -2266,7 +2265,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>19</v>
       </c>
@@ -2280,7 +2279,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>20</v>
       </c>
@@ -2308,7 +2307,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>22</v>
       </c>
@@ -2322,10 +2321,10 @@
         <v>155</v>
       </c>
     </row>
-    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M96" s="2"/>
     </row>
-    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -2339,7 +2338,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>23</v>
       </c>
@@ -2353,7 +2352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>24</v>
       </c>
@@ -2367,7 +2366,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>25</v>
       </c>
@@ -2381,7 +2380,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>26</v>
       </c>
@@ -2395,7 +2394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>27</v>
       </c>
@@ -2409,7 +2408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>28</v>
       </c>
@@ -2423,7 +2422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>29</v>
       </c>
@@ -2437,7 +2436,7 @@
         <v>94.373401534526806</v>
       </c>
     </row>
-    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>30</v>
       </c>
@@ -2451,7 +2450,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>31</v>
       </c>
@@ -2465,10 +2464,10 @@
         <v>156</v>
       </c>
     </row>
-    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M107" s="2"/>
     </row>
-    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>33</v>
       </c>
@@ -2482,10 +2481,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M109" s="2"/>
     </row>
-    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>10</v>
       </c>
@@ -2512,10 +2511,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M111" s="2"/>
     </row>
-    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>34</v>
       </c>
@@ -2529,7 +2528,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>6</v>
       </c>
@@ -2543,7 +2542,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -2557,7 +2556,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>8</v>
       </c>
@@ -2571,7 +2570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -2585,7 +2584,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>68</v>
       </c>
@@ -2594,10 +2593,10 @@
       </c>
       <c r="M117" s="2"/>
     </row>
-    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M118" s="2"/>
     </row>
-    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>10</v>
       </c>
@@ -2611,7 +2610,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>11</v>
       </c>
@@ -2625,7 +2624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>12</v>
       </c>
@@ -2639,7 +2638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>13</v>
       </c>
@@ -2653,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>14</v>
       </c>
@@ -2667,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>15</v>
       </c>
@@ -2681,10 +2680,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M125" s="2"/>
     </row>
-    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>16</v>
       </c>
@@ -2698,7 +2697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>17</v>
       </c>
@@ -2712,7 +2711,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>19</v>
       </c>
@@ -2726,7 +2725,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>20</v>
       </c>
@@ -2754,7 +2753,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>22</v>
       </c>
@@ -2768,10 +2767,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M132" s="2"/>
     </row>
-    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>5</v>
       </c>
@@ -2785,7 +2784,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>23</v>
       </c>
@@ -2799,7 +2798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>24</v>
       </c>
@@ -2813,7 +2812,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>25</v>
       </c>
@@ -2827,7 +2826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>26</v>
       </c>
@@ -2841,7 +2840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>27</v>
       </c>
@@ -2855,7 +2854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>28</v>
       </c>
@@ -2869,7 +2868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>29</v>
       </c>
@@ -2883,7 +2882,7 @@
         <v>92.084432717678098</v>
       </c>
     </row>
-    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>30</v>
       </c>
@@ -2897,7 +2896,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>31</v>
       </c>
@@ -2911,10 +2910,10 @@
         <v>161</v>
       </c>
     </row>
-    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M143" s="2"/>
     </row>
-    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>33</v>
       </c>
@@ -2928,10 +2927,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="145" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M145" s="2"/>
     </row>
-    <row r="146" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>10</v>
       </c>
@@ -2958,10 +2957,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M147" s="2"/>
     </row>
-    <row r="148" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>34</v>
+      </c>
+      <c r="B148" s="2">
+        <v>76</v>
+      </c>
       <c r="L148" t="s">
         <v>34</v>
       </c>
@@ -2969,12 +2974,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="149" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B149" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="L149" t="s">
         <v>6</v>
@@ -2983,12 +2988,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="150" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B150" s="2">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="L150" t="s">
         <v>7</v>
@@ -2997,12 +3002,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="151" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B151" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="L151" t="s">
         <v>8</v>
@@ -3011,12 +3016,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B152" s="2">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="L152" t="s">
         <v>9</v>
@@ -3025,25 +3030,25 @@
         <v>66</v>
       </c>
     </row>
-    <row r="153" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>9</v>
-      </c>
-      <c r="B153" s="2">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="L153" t="s">
         <v>162</v>
       </c>
       <c r="M153" s="2"/>
     </row>
-    <row r="154" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>39</v>
-      </c>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M154" s="2"/>
     </row>
-    <row r="155" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>10</v>
+      </c>
+      <c r="B155" s="2">
+        <v>15</v>
+      </c>
       <c r="L155" t="s">
         <v>10</v>
       </c>
@@ -3051,12 +3056,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="156" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B156" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L156" t="s">
         <v>11</v>
@@ -3065,12 +3070,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B157" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L157" t="s">
         <v>12</v>
@@ -3079,12 +3084,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B158" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="L158" t="s">
         <v>13</v>
@@ -3093,9 +3098,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B159" s="2">
         <v>2</v>
@@ -3107,12 +3112,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B160" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L160" t="s">
         <v>15</v>
@@ -3121,16 +3126,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>15</v>
-      </c>
-      <c r="B161" s="2">
-        <v>0</v>
-      </c>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M161" s="2"/>
     </row>
-    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>16</v>
+      </c>
+      <c r="B162" s="2">
+        <v>4</v>
+      </c>
       <c r="L162" t="s">
         <v>16</v>
       </c>
@@ -3138,12 +3143,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>16</v>
-      </c>
-      <c r="B163" s="2">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="L163" t="s">
         <v>17</v>
@@ -3152,12 +3157,12 @@
         <v>163</v>
       </c>
     </row>
-    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="L164" t="s">
         <v>19</v>
@@ -3166,12 +3171,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="L165" t="s">
         <v>20</v>
@@ -3180,12 +3185,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L166" t="s">
         <v>21</v>
@@ -3196,10 +3201,10 @@
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L167" t="s">
         <v>22</v>
@@ -3208,16 +3213,16 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>22</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>75</v>
-      </c>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M168" s="2"/>
     </row>
-    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" s="2">
+        <v>91</v>
+      </c>
       <c r="L169" t="s">
         <v>5</v>
       </c>
@@ -3225,12 +3230,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
+        <v>23</v>
+      </c>
+      <c r="B170" s="2">
         <v>5</v>
-      </c>
-      <c r="B170" s="2">
-        <v>91</v>
       </c>
       <c r="L170" t="s">
         <v>23</v>
@@ -3239,12 +3244,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B171" s="2">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="L171" t="s">
         <v>24</v>
@@ -3253,12 +3258,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B172" s="2">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="L172" t="s">
         <v>25</v>
@@ -3267,12 +3272,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B173" s="2">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="L173" t="s">
         <v>26</v>
@@ -3281,9 +3286,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B174" s="2">
         <v>1</v>
@@ -3295,12 +3300,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>27</v>
-      </c>
-      <c r="B175" s="2">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="B175" s="3">
+        <v>0</v>
       </c>
       <c r="L175" t="s">
         <v>28</v>
@@ -3309,12 +3314,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B176" s="3">
-        <v>0</v>
+        <v>88.764044943820195</v>
       </c>
       <c r="L176" t="s">
         <v>29</v>
@@ -3323,12 +3328,12 @@
         <v>85.074626865671604</v>
       </c>
     </row>
-    <row r="177" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>29</v>
-      </c>
-      <c r="B177" s="3">
-        <v>88.764044943820195</v>
+        <v>30</v>
+      </c>
+      <c r="B177" s="2">
+        <v>37</v>
       </c>
       <c r="L177" t="s">
         <v>30</v>
@@ -3337,12 +3342,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="178" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>30</v>
-      </c>
-      <c r="B178" s="2">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L178" t="s">
         <v>31</v>
@@ -3351,16 +3356,16 @@
         <v>167</v>
       </c>
     </row>
-    <row r="179" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>31</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>43</v>
-      </c>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M179" s="2"/>
     </row>
-    <row r="180" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>33</v>
+      </c>
+      <c r="B180" s="2">
+        <v>90</v>
+      </c>
       <c r="L180" t="s">
         <v>33</v>
       </c>
@@ -3368,16 +3373,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="181" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>33</v>
-      </c>
-      <c r="B181" s="2">
-        <v>90</v>
-      </c>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M181" s="2"/>
     </row>
-    <row r="182" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>10</v>
       </c>
@@ -3404,10 +3403,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M183" s="2"/>
     </row>
-    <row r="184" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>34</v>
       </c>
@@ -3421,7 +3420,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="185" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>6</v>
       </c>
@@ -3435,7 +3434,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="186" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>7</v>
       </c>
@@ -3449,7 +3448,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="187" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>8</v>
       </c>
@@ -3463,7 +3462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>9</v>
       </c>
@@ -3477,7 +3476,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="189" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>76</v>
       </c>
@@ -3486,10 +3485,10 @@
       </c>
       <c r="M189" s="2"/>
     </row>
-    <row r="190" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M190" s="2"/>
     </row>
-    <row r="191" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>10</v>
       </c>
@@ -3503,7 +3502,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="192" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>11</v>
       </c>
@@ -3517,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>12</v>
       </c>
@@ -3531,7 +3530,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>13</v>
       </c>
@@ -3545,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>14</v>
       </c>
@@ -3559,7 +3558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>15</v>
       </c>
@@ -3573,10 +3572,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M197" s="2"/>
     </row>
-    <row r="198" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>16</v>
       </c>
@@ -3590,7 +3589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>17</v>
       </c>
@@ -3604,7 +3603,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="200" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>19</v>
       </c>
@@ -3618,7 +3617,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="201" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>20</v>
       </c>
@@ -3646,7 +3645,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="203" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>22</v>
       </c>
@@ -3660,10 +3659,10 @@
         <v>170</v>
       </c>
     </row>
-    <row r="204" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M204" s="2"/>
     </row>
-    <row r="205" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>5</v>
       </c>
@@ -3677,7 +3676,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="206" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>23</v>
       </c>
@@ -3691,7 +3690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>24</v>
       </c>
@@ -3705,7 +3704,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="208" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>25</v>
       </c>
@@ -3719,7 +3718,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="209" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>26</v>
       </c>
@@ -3733,7 +3732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>27</v>
       </c>
@@ -3747,7 +3746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>28</v>
       </c>
@@ -3761,7 +3760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>29</v>
       </c>
@@ -3775,7 +3774,7 @@
         <v>80.588235294117595</v>
       </c>
     </row>
-    <row r="213" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>30</v>
       </c>
@@ -3789,7 +3788,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="214" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>31</v>
       </c>
@@ -3803,10 +3802,10 @@
         <v>171</v>
       </c>
     </row>
-    <row r="215" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M215" s="2"/>
     </row>
-    <row r="216" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>33</v>
       </c>
@@ -3820,10 +3819,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="217" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M217" s="2"/>
     </row>
-    <row r="218" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>20</v>
       </c>
@@ -3850,10 +3849,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M219" s="2"/>
     </row>
-    <row r="220" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>34</v>
       </c>
@@ -3867,7 +3866,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="221" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>6</v>
       </c>
@@ -3881,7 +3880,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="222" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>7</v>
       </c>
@@ -3895,7 +3894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="223" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>8</v>
       </c>
@@ -3909,7 +3908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>9</v>
       </c>
@@ -3923,7 +3922,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="225" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>44</v>
       </c>
@@ -3932,10 +3931,10 @@
       </c>
       <c r="M225" s="2"/>
     </row>
-    <row r="226" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M226" s="2"/>
     </row>
-    <row r="227" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>10</v>
       </c>
@@ -3949,7 +3948,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="228" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>11</v>
       </c>
@@ -3963,7 +3962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>12</v>
       </c>
@@ -3977,7 +3976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>13</v>
       </c>
@@ -3991,7 +3990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>14</v>
       </c>
@@ -4005,7 +4004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>15</v>
       </c>
@@ -4019,10 +4018,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M233" s="2"/>
     </row>
-    <row r="234" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>16</v>
       </c>
@@ -4036,7 +4035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>17</v>
       </c>
@@ -4050,7 +4049,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="236" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>19</v>
       </c>
@@ -4064,7 +4063,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="237" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>20</v>
       </c>
@@ -4092,7 +4091,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="239" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>22</v>
       </c>
@@ -4106,10 +4105,10 @@
         <v>174</v>
       </c>
     </row>
-    <row r="240" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M240" s="2"/>
     </row>
-    <row r="241" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>5</v>
       </c>
@@ -4123,7 +4122,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="242" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>23</v>
       </c>
@@ -4137,7 +4136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>24</v>
       </c>
@@ -4151,7 +4150,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="244" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>25</v>
       </c>
@@ -4165,7 +4164,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="245" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>26</v>
       </c>
@@ -4179,7 +4178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="246" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>27</v>
       </c>
@@ -4193,7 +4192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="247" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>28</v>
       </c>
@@ -4207,7 +4206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>29</v>
       </c>
@@ -4221,7 +4220,7 @@
         <v>94.638694638694602</v>
       </c>
     </row>
-    <row r="249" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>30</v>
       </c>
@@ -4235,7 +4234,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="250" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>31</v>
       </c>
@@ -4249,10 +4248,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="251" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M251" s="2"/>
     </row>
-    <row r="252" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>33</v>
       </c>
@@ -4266,10 +4265,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="253" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M253" s="2"/>
     </row>
-    <row r="254" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>20</v>
       </c>
@@ -4296,10 +4295,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M255" s="2"/>
     </row>
-    <row r="256" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>34</v>
       </c>
@@ -4313,7 +4312,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="257" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>6</v>
       </c>
@@ -4327,7 +4326,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="258" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>7</v>
       </c>
@@ -4341,7 +4340,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="259" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>8</v>
       </c>
@@ -4355,7 +4354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>9</v>
       </c>
@@ -4369,7 +4368,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="261" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>44</v>
       </c>
@@ -4378,10 +4377,10 @@
       </c>
       <c r="M261" s="2"/>
     </row>
-    <row r="262" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M262" s="2"/>
     </row>
-    <row r="263" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>10</v>
       </c>
@@ -4395,7 +4394,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="264" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>11</v>
       </c>
@@ -4409,7 +4408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>12</v>
       </c>
@@ -4423,7 +4422,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="266" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>13</v>
       </c>
@@ -4437,7 +4436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>14</v>
       </c>
@@ -4451,7 +4450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>15</v>
       </c>
@@ -4465,10 +4464,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M269" s="2"/>
     </row>
-    <row r="270" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>16</v>
       </c>
@@ -4482,7 +4481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>17</v>
       </c>
@@ -4496,7 +4495,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="272" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>19</v>
       </c>
@@ -4507,10 +4506,10 @@
         <v>19</v>
       </c>
       <c r="M272" s="3">
-        <v>1.33333333333333E+16</v>
-      </c>
-    </row>
-    <row r="273" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>1.3333333333333299</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>20</v>
       </c>
@@ -4538,7 +4537,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="275" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>22</v>
       </c>
@@ -4552,10 +4551,10 @@
         <v>178</v>
       </c>
     </row>
-    <row r="276" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M276" s="2"/>
     </row>
-    <row r="277" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>5</v>
       </c>
@@ -4569,7 +4568,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="278" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>23</v>
       </c>
@@ -4583,7 +4582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>24</v>
       </c>
@@ -4597,7 +4596,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="280" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>25</v>
       </c>
@@ -4611,7 +4610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="281" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>26</v>
       </c>
@@ -4625,7 +4624,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="282" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>27</v>
       </c>
@@ -4639,7 +4638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="283" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>28</v>
       </c>
@@ -4653,7 +4652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>29</v>
       </c>
@@ -4667,7 +4666,7 @@
         <v>95.305164319248803</v>
       </c>
     </row>
-    <row r="285" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>30</v>
       </c>
@@ -4681,7 +4680,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="286" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>31</v>
       </c>
@@ -4695,10 +4694,10 @@
         <v>179</v>
       </c>
     </row>
-    <row r="287" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M287" s="2"/>
     </row>
-    <row r="288" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>33</v>
       </c>
@@ -4712,10 +4711,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="289" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M289" s="2"/>
     </row>
-    <row r="290" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>20</v>
       </c>
@@ -4742,10 +4741,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M291" s="2"/>
     </row>
-    <row r="292" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>34</v>
       </c>
@@ -4759,7 +4758,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="293" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>6</v>
       </c>
@@ -4773,7 +4772,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="294" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>7</v>
       </c>
@@ -4787,7 +4786,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="295" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>8</v>
       </c>
@@ -4801,7 +4800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="296" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>9</v>
       </c>
@@ -4815,7 +4814,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="297" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>88</v>
       </c>
@@ -4824,10 +4823,10 @@
       </c>
       <c r="M297" s="2"/>
     </row>
-    <row r="298" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M298" s="2"/>
     </row>
-    <row r="299" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>10</v>
       </c>
@@ -4841,7 +4840,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="300" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>11</v>
       </c>
@@ -4855,7 +4854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>12</v>
       </c>
@@ -4869,7 +4868,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="302" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>13</v>
       </c>
@@ -4883,7 +4882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>14</v>
       </c>
@@ -4897,7 +4896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="304" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>15</v>
       </c>
@@ -4911,10 +4910,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M305" s="2"/>
     </row>
-    <row r="306" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>16</v>
       </c>
@@ -4928,7 +4927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="307" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>17</v>
       </c>
@@ -4942,7 +4941,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="308" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>19</v>
       </c>
@@ -4953,10 +4952,10 @@
         <v>19</v>
       </c>
       <c r="M308" s="3">
-        <v>1.66666666666666E+16</v>
-      </c>
-    </row>
-    <row r="309" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>1.6666666666666601</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>20</v>
       </c>
@@ -4984,7 +4983,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="311" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>22</v>
       </c>
@@ -4998,10 +4997,10 @@
         <v>183</v>
       </c>
     </row>
-    <row r="312" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M312" s="2"/>
     </row>
-    <row r="313" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>5</v>
       </c>
@@ -5015,7 +5014,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="314" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>23</v>
       </c>
@@ -5029,7 +5028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>24</v>
       </c>
@@ -5043,7 +5042,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="316" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>25</v>
       </c>
@@ -5057,7 +5056,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="317" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>26</v>
       </c>
@@ -5071,7 +5070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>27</v>
       </c>
@@ -5085,7 +5084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>28</v>
       </c>
@@ -5099,7 +5098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>29</v>
       </c>
@@ -5113,7 +5112,7 @@
         <v>92.837465564738295</v>
       </c>
     </row>
-    <row r="321" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>30</v>
       </c>
@@ -5127,7 +5126,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="322" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>31</v>
       </c>
@@ -5141,10 +5140,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="323" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M323" s="2"/>
     </row>
-    <row r="324" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>33</v>
       </c>
@@ -5158,10 +5157,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="325" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M325" s="2"/>
     </row>
-    <row r="326" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>20</v>
       </c>
@@ -5188,10 +5187,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M327" s="2"/>
     </row>
-    <row r="328" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>34</v>
       </c>
@@ -5205,7 +5204,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="329" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>6</v>
       </c>
@@ -5219,7 +5218,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="330" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>7</v>
       </c>
@@ -5233,7 +5232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="331" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>8</v>
       </c>
@@ -5247,7 +5246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>9</v>
       </c>
@@ -5261,7 +5260,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="333" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>94</v>
       </c>
@@ -5270,10 +5269,10 @@
       </c>
       <c r="M333" s="2"/>
     </row>
-    <row r="334" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M334" s="2"/>
     </row>
-    <row r="335" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>10</v>
       </c>
@@ -5287,7 +5286,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="336" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>11</v>
       </c>
@@ -5301,7 +5300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>12</v>
       </c>
@@ -5315,7 +5314,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="338" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>13</v>
       </c>
@@ -5329,7 +5328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>14</v>
       </c>
@@ -5343,7 +5342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>15</v>
       </c>
@@ -5357,10 +5356,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M341" s="2"/>
     </row>
-    <row r="342" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>16</v>
       </c>
@@ -5374,7 +5373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="343" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>17</v>
       </c>
@@ -5388,7 +5387,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="344" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>19</v>
       </c>
@@ -5402,7 +5401,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="345" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>20</v>
       </c>
@@ -5430,7 +5429,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="347" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>22</v>
       </c>
@@ -5444,10 +5443,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="348" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M348" s="2"/>
     </row>
-    <row r="349" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>5</v>
       </c>
@@ -5461,7 +5460,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="350" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>23</v>
       </c>
@@ -5475,7 +5474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>24</v>
       </c>
@@ -5489,7 +5488,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="352" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>25</v>
       </c>
@@ -5503,7 +5502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="353" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>26</v>
       </c>
@@ -5517,7 +5516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>27</v>
       </c>
@@ -5531,7 +5530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>28</v>
       </c>
@@ -5545,7 +5544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>29</v>
       </c>
@@ -5559,7 +5558,7 @@
         <v>96.695652173913004</v>
       </c>
     </row>
-    <row r="357" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>30</v>
       </c>
@@ -5573,7 +5572,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="358" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>31</v>
       </c>
@@ -5587,10 +5586,10 @@
         <v>187</v>
       </c>
     </row>
-    <row r="359" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M359" s="2"/>
     </row>
-    <row r="360" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>33</v>
       </c>
@@ -5604,10 +5603,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="361" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M361" s="2"/>
     </row>
-    <row r="362" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>20</v>
       </c>
@@ -5634,10 +5633,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M363" s="2"/>
     </row>
-    <row r="364" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>34</v>
       </c>
@@ -5651,7 +5650,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="365" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>6</v>
       </c>
@@ -5665,7 +5664,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="366" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>7</v>
       </c>
@@ -5679,7 +5678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="367" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>8</v>
       </c>
@@ -5693,7 +5692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>9</v>
       </c>
@@ -5707,7 +5706,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="369" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>49</v>
       </c>
@@ -5716,10 +5715,10 @@
       </c>
       <c r="M369" s="2"/>
     </row>
-    <row r="370" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M370" s="2"/>
     </row>
-    <row r="371" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>10</v>
       </c>
@@ -5733,7 +5732,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="372" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>11</v>
       </c>
@@ -5747,7 +5746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>12</v>
       </c>
@@ -5761,7 +5760,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="374" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>13</v>
       </c>
@@ -5775,7 +5774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>14</v>
       </c>
@@ -5789,7 +5788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>15</v>
       </c>
@@ -5803,10 +5802,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M377" s="2"/>
     </row>
-    <row r="378" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>16</v>
       </c>
@@ -5820,7 +5819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="379" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>17</v>
       </c>
@@ -5834,12 +5833,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="380" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>19</v>
       </c>
       <c r="B380" s="3">
-        <v>1.41666666666666E+16</v>
+        <v>1.4166666666666601</v>
       </c>
       <c r="L380" t="s">
         <v>19</v>
@@ -5848,7 +5847,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="381" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>20</v>
       </c>
@@ -5876,7 +5875,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="383" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>22</v>
       </c>
@@ -5890,10 +5889,10 @@
         <v>191</v>
       </c>
     </row>
-    <row r="384" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M384" s="2"/>
     </row>
-    <row r="385" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>5</v>
       </c>
@@ -5907,7 +5906,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="386" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>23</v>
       </c>
@@ -5921,7 +5920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="387" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>24</v>
       </c>
@@ -5935,7 +5934,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="388" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>25</v>
       </c>
@@ -5949,7 +5948,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="389" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>26</v>
       </c>
@@ -5963,7 +5962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>27</v>
       </c>
@@ -5977,7 +5976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>28</v>
       </c>
@@ -5991,7 +5990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="392" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>29</v>
       </c>
@@ -6005,7 +6004,7 @@
         <v>88.659793814432902</v>
       </c>
     </row>
-    <row r="393" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>30</v>
       </c>
@@ -6019,7 +6018,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="394" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>31</v>
       </c>
@@ -6033,10 +6032,10 @@
         <v>192</v>
       </c>
     </row>
-    <row r="395" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M395" s="2"/>
     </row>
-    <row r="396" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>33</v>
       </c>
@@ -6050,10 +6049,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="397" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M397" s="2"/>
     </row>
-    <row r="398" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A398" s="4">
         <v>20</v>
       </c>
@@ -6085,7 +6084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="399" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A399" s="4"/>
       <c r="B399" s="5"/>
       <c r="C399" s="4"/>
@@ -6101,7 +6100,7 @@
       <c r="Q399" s="4"/>
       <c r="R399" s="4"/>
     </row>
-    <row r="400" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>34</v>
       </c>
@@ -6125,7 +6124,7 @@
       <c r="Q400" s="4"/>
       <c r="R400" s="4"/>
     </row>
-    <row r="401" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
         <v>6</v>
       </c>
@@ -6149,7 +6148,7 @@
       <c r="Q401" s="4"/>
       <c r="R401" s="4"/>
     </row>
-    <row r="402" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
         <v>7</v>
       </c>
@@ -6173,7 +6172,7 @@
       <c r="Q402" s="4"/>
       <c r="R402" s="4"/>
     </row>
-    <row r="403" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
         <v>8</v>
       </c>
@@ -6197,7 +6196,7 @@
       <c r="Q403" s="4"/>
       <c r="R403" s="4"/>
     </row>
-    <row r="404" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
         <v>9</v>
       </c>
@@ -6221,7 +6220,7 @@
       <c r="Q404" s="4"/>
       <c r="R404" s="4"/>
     </row>
-    <row r="405" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A405" s="4" t="s">
         <v>88</v>
       </c>
@@ -6241,7 +6240,7 @@
       <c r="Q405" s="4"/>
       <c r="R405" s="4"/>
     </row>
-    <row r="406" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A406" s="1"/>
       <c r="B406" s="5"/>
       <c r="C406" s="4"/>
@@ -6257,7 +6256,7 @@
       <c r="Q406" s="4"/>
       <c r="R406" s="4"/>
     </row>
-    <row r="407" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
         <v>10</v>
       </c>
@@ -6281,7 +6280,7 @@
       <c r="Q407" s="4"/>
       <c r="R407" s="4"/>
     </row>
-    <row r="408" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
         <v>11</v>
       </c>
@@ -6305,7 +6304,7 @@
       <c r="Q408" s="4"/>
       <c r="R408" s="4"/>
     </row>
-    <row r="409" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
         <v>12</v>
       </c>
@@ -6329,7 +6328,7 @@
       <c r="Q409" s="4"/>
       <c r="R409" s="4"/>
     </row>
-    <row r="410" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
         <v>13</v>
       </c>
@@ -6353,7 +6352,7 @@
       <c r="Q410" s="4"/>
       <c r="R410" s="4"/>
     </row>
-    <row r="411" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
         <v>14</v>
       </c>
@@ -6377,7 +6376,7 @@
       <c r="Q411" s="4"/>
       <c r="R411" s="4"/>
     </row>
-    <row r="412" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A412" s="4" t="s">
         <v>15</v>
       </c>
@@ -6401,7 +6400,7 @@
       <c r="Q412" s="4"/>
       <c r="R412" s="4"/>
     </row>
-    <row r="413" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A413" s="1"/>
       <c r="B413" s="5"/>
       <c r="C413" s="4"/>
@@ -6417,7 +6416,7 @@
       <c r="Q413" s="4"/>
       <c r="R413" s="4"/>
     </row>
-    <row r="414" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
         <v>16</v>
       </c>
@@ -6441,7 +6440,7 @@
       <c r="Q414" s="4"/>
       <c r="R414" s="4"/>
     </row>
-    <row r="415" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
         <v>17</v>
       </c>
@@ -6465,7 +6464,7 @@
       <c r="Q415" s="4"/>
       <c r="R415" s="4"/>
     </row>
-    <row r="416" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
         <v>19</v>
       </c>
@@ -6481,7 +6480,7 @@
         <v>19</v>
       </c>
       <c r="M416" s="6">
-        <v>1.66666666666666E+16</v>
+        <v>1.6666666666666601</v>
       </c>
       <c r="N416" s="4"/>
       <c r="O416" s="4"/>
@@ -6489,7 +6488,7 @@
       <c r="Q416" s="4"/>
       <c r="R416" s="4"/>
     </row>
-    <row r="417" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
         <v>20</v>
       </c>
@@ -6537,7 +6536,7 @@
       <c r="Q418" s="4"/>
       <c r="R418" s="4"/>
     </row>
-    <row r="419" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A419" s="4" t="s">
         <v>22</v>
       </c>
@@ -6561,7 +6560,7 @@
       <c r="Q419" s="4"/>
       <c r="R419" s="4"/>
     </row>
-    <row r="420" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A420" s="1"/>
       <c r="B420" s="5"/>
       <c r="C420" s="4"/>
@@ -6577,7 +6576,7 @@
       <c r="Q420" s="4"/>
       <c r="R420" s="4"/>
     </row>
-    <row r="421" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
         <v>5</v>
       </c>
@@ -6601,7 +6600,7 @@
       <c r="Q421" s="4"/>
       <c r="R421" s="4"/>
     </row>
-    <row r="422" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
         <v>23</v>
       </c>
@@ -6625,7 +6624,7 @@
       <c r="Q422" s="4"/>
       <c r="R422" s="4"/>
     </row>
-    <row r="423" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
         <v>24</v>
       </c>
@@ -6649,7 +6648,7 @@
       <c r="Q423" s="4"/>
       <c r="R423" s="4"/>
     </row>
-    <row r="424" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
         <v>25</v>
       </c>
@@ -6673,7 +6672,7 @@
       <c r="Q424" s="4"/>
       <c r="R424" s="4"/>
     </row>
-    <row r="425" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
         <v>26</v>
       </c>
@@ -6697,7 +6696,7 @@
       <c r="Q425" s="4"/>
       <c r="R425" s="4"/>
     </row>
-    <row r="426" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
         <v>27</v>
       </c>
@@ -6721,7 +6720,7 @@
       <c r="Q426" s="4"/>
       <c r="R426" s="4"/>
     </row>
-    <row r="427" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
         <v>28</v>
       </c>
@@ -6745,7 +6744,7 @@
       <c r="Q427" s="4"/>
       <c r="R427" s="4"/>
     </row>
-    <row r="428" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>29</v>
       </c>
@@ -6769,7 +6768,7 @@
       <c r="Q428" s="4"/>
       <c r="R428" s="4"/>
     </row>
-    <row r="429" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
         <v>30</v>
       </c>
@@ -6793,7 +6792,7 @@
       <c r="Q429" s="4"/>
       <c r="R429" s="4"/>
     </row>
-    <row r="430" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A430" s="4" t="s">
         <v>31</v>
       </c>
@@ -6817,7 +6816,7 @@
       <c r="Q430" s="4"/>
       <c r="R430" s="4"/>
     </row>
-    <row r="431" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A431" s="1"/>
       <c r="B431" s="5"/>
       <c r="C431" s="4"/>
@@ -6833,7 +6832,7 @@
       <c r="Q431" s="4"/>
       <c r="R431" s="4"/>
     </row>
-    <row r="432" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A432" s="4" t="s">
         <v>33</v>
       </c>
@@ -6857,7 +6856,7 @@
       <c r="Q432" s="4"/>
       <c r="R432" s="4"/>
     </row>
-    <row r="433" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A433" s="4"/>
       <c r="B433" s="5"/>
       <c r="C433" s="4"/>
@@ -6873,7 +6872,7 @@
       <c r="Q433" s="4"/>
       <c r="R433" s="4"/>
     </row>
-    <row r="434" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A434" s="4">
         <v>30</v>
       </c>
@@ -6905,7 +6904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="435" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A435" s="4"/>
       <c r="B435" s="5"/>
       <c r="C435" s="4"/>
@@ -6921,7 +6920,7 @@
       <c r="Q435" s="4"/>
       <c r="R435" s="4"/>
     </row>
-    <row r="436" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
         <v>34</v>
       </c>
@@ -6945,7 +6944,7 @@
       <c r="Q436" s="4"/>
       <c r="R436" s="4"/>
     </row>
-    <row r="437" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
         <v>6</v>
       </c>
@@ -6969,7 +6968,7 @@
       <c r="Q437" s="4"/>
       <c r="R437" s="4"/>
     </row>
-    <row r="438" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
         <v>7</v>
       </c>
@@ -6993,7 +6992,7 @@
       <c r="Q438" s="4"/>
       <c r="R438" s="4"/>
     </row>
-    <row r="439" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
         <v>8</v>
       </c>
@@ -7017,7 +7016,7 @@
       <c r="Q439" s="4"/>
       <c r="R439" s="4"/>
     </row>
-    <row r="440" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
         <v>9</v>
       </c>
@@ -7041,7 +7040,7 @@
       <c r="Q440" s="4"/>
       <c r="R440" s="4"/>
     </row>
-    <row r="441" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A441" s="4" t="s">
         <v>94</v>
       </c>
@@ -7061,7 +7060,7 @@
       <c r="Q441" s="4"/>
       <c r="R441" s="4"/>
     </row>
-    <row r="442" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A442" s="1"/>
       <c r="B442" s="5"/>
       <c r="C442" s="4"/>
@@ -7077,7 +7076,7 @@
       <c r="Q442" s="4"/>
       <c r="R442" s="4"/>
     </row>
-    <row r="443" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
         <v>10</v>
       </c>
@@ -7101,7 +7100,7 @@
       <c r="Q443" s="4"/>
       <c r="R443" s="4"/>
     </row>
-    <row r="444" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>11</v>
       </c>
@@ -7125,7 +7124,7 @@
       <c r="Q444" s="4"/>
       <c r="R444" s="4"/>
     </row>
-    <row r="445" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
         <v>12</v>
       </c>
@@ -7149,7 +7148,7 @@
       <c r="Q445" s="4"/>
       <c r="R445" s="4"/>
     </row>
-    <row r="446" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>13</v>
       </c>
@@ -7173,7 +7172,7 @@
       <c r="Q446" s="4"/>
       <c r="R446" s="4"/>
     </row>
-    <row r="447" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
         <v>14</v>
       </c>
@@ -7197,7 +7196,7 @@
       <c r="Q447" s="4"/>
       <c r="R447" s="4"/>
     </row>
-    <row r="448" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A448" s="4" t="s">
         <v>15</v>
       </c>
@@ -7221,7 +7220,7 @@
       <c r="Q448" s="4"/>
       <c r="R448" s="4"/>
     </row>
-    <row r="449" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A449" s="1"/>
       <c r="B449" s="5"/>
       <c r="C449" s="4"/>
@@ -7237,7 +7236,7 @@
       <c r="Q449" s="4"/>
       <c r="R449" s="4"/>
     </row>
-    <row r="450" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
         <v>16</v>
       </c>
@@ -7261,7 +7260,7 @@
       <c r="Q450" s="4"/>
       <c r="R450" s="4"/>
     </row>
-    <row r="451" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
         <v>17</v>
       </c>
@@ -7285,12 +7284,12 @@
       <c r="Q451" s="4"/>
       <c r="R451" s="4"/>
     </row>
-    <row r="452" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B452" s="6">
-        <v>1.66666666666666E+16</v>
+        <v>1.6666666666666601</v>
       </c>
       <c r="C452" s="4"/>
       <c r="D452" s="4"/>
@@ -7309,7 +7308,7 @@
       <c r="Q452" s="4"/>
       <c r="R452" s="4"/>
     </row>
-    <row r="453" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
         <v>20</v>
       </c>
@@ -7357,7 +7356,7 @@
       <c r="Q454" s="4"/>
       <c r="R454" s="4"/>
     </row>
-    <row r="455" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A455" s="4" t="s">
         <v>22</v>
       </c>
@@ -7381,7 +7380,7 @@
       <c r="Q455" s="4"/>
       <c r="R455" s="4"/>
     </row>
-    <row r="456" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A456" s="1"/>
       <c r="B456" s="5"/>
       <c r="C456" s="4"/>
@@ -7397,7 +7396,7 @@
       <c r="Q456" s="4"/>
       <c r="R456" s="4"/>
     </row>
-    <row r="457" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
         <v>5</v>
       </c>
@@ -7421,7 +7420,7 @@
       <c r="Q457" s="4"/>
       <c r="R457" s="4"/>
     </row>
-    <row r="458" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>23</v>
       </c>
@@ -7445,7 +7444,7 @@
       <c r="Q458" s="4"/>
       <c r="R458" s="4"/>
     </row>
-    <row r="459" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
         <v>24</v>
       </c>
@@ -7469,7 +7468,7 @@
       <c r="Q459" s="4"/>
       <c r="R459" s="4"/>
     </row>
-    <row r="460" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
         <v>25</v>
       </c>
@@ -7493,7 +7492,7 @@
       <c r="Q460" s="4"/>
       <c r="R460" s="4"/>
     </row>
-    <row r="461" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
         <v>26</v>
       </c>
@@ -7517,7 +7516,7 @@
       <c r="Q461" s="4"/>
       <c r="R461" s="4"/>
     </row>
-    <row r="462" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
         <v>27</v>
       </c>
@@ -7541,7 +7540,7 @@
       <c r="Q462" s="4"/>
       <c r="R462" s="4"/>
     </row>
-    <row r="463" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="s">
         <v>28</v>
       </c>
@@ -7565,7 +7564,7 @@
       <c r="Q463" s="4"/>
       <c r="R463" s="4"/>
     </row>
-    <row r="464" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
         <v>29</v>
       </c>
@@ -7589,7 +7588,7 @@
       <c r="Q464" s="4"/>
       <c r="R464" s="4"/>
     </row>
-    <row r="465" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
         <v>30</v>
       </c>
@@ -7613,7 +7612,7 @@
       <c r="Q465" s="4"/>
       <c r="R465" s="4"/>
     </row>
-    <row r="466" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A466" s="4" t="s">
         <v>31</v>
       </c>
@@ -7637,7 +7636,7 @@
       <c r="Q466" s="4"/>
       <c r="R466" s="4"/>
     </row>
-    <row r="467" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A467" s="1"/>
       <c r="B467" s="5"/>
       <c r="C467" s="4"/>
@@ -7653,7 +7652,7 @@
       <c r="Q467" s="4"/>
       <c r="R467" s="4"/>
     </row>
-    <row r="468" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A468" s="4" t="s">
         <v>33</v>
       </c>
@@ -7677,7 +7676,7 @@
       <c r="Q468" s="4"/>
       <c r="R468" s="4"/>
     </row>
-    <row r="469" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A469" s="4"/>
       <c r="B469" s="5"/>
       <c r="C469" s="4"/>
@@ -7695,7 +7694,7 @@
       <c r="Q469" s="4"/>
       <c r="R469" s="4"/>
     </row>
-    <row r="470" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A470" s="4">
         <v>30</v>
       </c>
@@ -7724,7 +7723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="471" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A471" s="4"/>
       <c r="B471" s="5"/>
       <c r="C471" s="4"/>
@@ -7740,7 +7739,7 @@
       <c r="Q471" s="4"/>
       <c r="R471" s="4"/>
     </row>
-    <row r="472" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
         <v>34</v>
       </c>
@@ -7764,7 +7763,7 @@
       <c r="Q472" s="4"/>
       <c r="R472" s="4"/>
     </row>
-    <row r="473" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
         <v>6</v>
       </c>
@@ -7788,7 +7787,7 @@
       <c r="Q473" s="4"/>
       <c r="R473" s="4"/>
     </row>
-    <row r="474" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
         <v>7</v>
       </c>
@@ -7812,7 +7811,7 @@
       <c r="Q474" s="4"/>
       <c r="R474" s="4"/>
     </row>
-    <row r="475" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
         <v>8</v>
       </c>
@@ -7836,7 +7835,7 @@
       <c r="Q475" s="4"/>
       <c r="R475" s="4"/>
     </row>
-    <row r="476" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
         <v>9</v>
       </c>
@@ -7860,7 +7859,7 @@
       <c r="Q476" s="4"/>
       <c r="R476" s="4"/>
     </row>
-    <row r="477" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A477" s="4" t="s">
         <v>114</v>
       </c>
@@ -7880,7 +7879,7 @@
       <c r="Q477" s="4"/>
       <c r="R477" s="4"/>
     </row>
-    <row r="478" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A478" s="1"/>
       <c r="B478" s="5"/>
       <c r="C478" s="4"/>
@@ -7896,7 +7895,7 @@
       <c r="Q478" s="4"/>
       <c r="R478" s="4"/>
     </row>
-    <row r="479" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
         <v>10</v>
       </c>
@@ -7920,7 +7919,7 @@
       <c r="Q479" s="4"/>
       <c r="R479" s="4"/>
     </row>
-    <row r="480" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
         <v>11</v>
       </c>
@@ -7944,7 +7943,7 @@
       <c r="Q480" s="4"/>
       <c r="R480" s="4"/>
     </row>
-    <row r="481" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
         <v>12</v>
       </c>
@@ -7968,7 +7967,7 @@
       <c r="Q481" s="4"/>
       <c r="R481" s="4"/>
     </row>
-    <row r="482" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
         <v>13</v>
       </c>
@@ -7992,7 +7991,7 @@
       <c r="Q482" s="4"/>
       <c r="R482" s="4"/>
     </row>
-    <row r="483" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
         <v>14</v>
       </c>
@@ -8016,7 +8015,7 @@
       <c r="Q483" s="4"/>
       <c r="R483" s="4"/>
     </row>
-    <row r="484" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A484" s="4" t="s">
         <v>15</v>
       </c>
@@ -8040,7 +8039,7 @@
       <c r="Q484" s="4"/>
       <c r="R484" s="4"/>
     </row>
-    <row r="485" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A485" s="1"/>
       <c r="B485" s="5"/>
       <c r="C485" s="4"/>
@@ -8056,7 +8055,7 @@
       <c r="Q485" s="4"/>
       <c r="R485" s="4"/>
     </row>
-    <row r="486" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
         <v>16</v>
       </c>
@@ -8080,7 +8079,7 @@
       <c r="Q486" s="4"/>
       <c r="R486" s="4"/>
     </row>
-    <row r="487" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
         <v>17</v>
       </c>
@@ -8104,7 +8103,7 @@
       <c r="Q487" s="4"/>
       <c r="R487" s="4"/>
     </row>
-    <row r="488" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
         <v>19</v>
       </c>
@@ -8120,7 +8119,7 @@
         <v>19</v>
       </c>
       <c r="M488" s="6">
-        <v>2.33333333333333E+16</v>
+        <v>2.3333333333333299</v>
       </c>
       <c r="N488" s="4"/>
       <c r="O488" s="4"/>
@@ -8128,7 +8127,7 @@
       <c r="Q488" s="4"/>
       <c r="R488" s="4"/>
     </row>
-    <row r="489" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
         <v>20</v>
       </c>
@@ -8176,7 +8175,7 @@
       <c r="Q490" s="4"/>
       <c r="R490" s="4"/>
     </row>
-    <row r="491" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A491" s="4" t="s">
         <v>22</v>
       </c>
@@ -8200,7 +8199,7 @@
       <c r="Q491" s="4"/>
       <c r="R491" s="4"/>
     </row>
-    <row r="492" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A492" s="1"/>
       <c r="B492" s="5"/>
       <c r="C492" s="4"/>
@@ -8216,7 +8215,7 @@
       <c r="Q492" s="4"/>
       <c r="R492" s="4"/>
     </row>
-    <row r="493" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
         <v>5</v>
       </c>
@@ -8240,7 +8239,7 @@
       <c r="Q493" s="4"/>
       <c r="R493" s="4"/>
     </row>
-    <row r="494" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
         <v>23</v>
       </c>
@@ -8264,7 +8263,7 @@
       <c r="Q494" s="4"/>
       <c r="R494" s="4"/>
     </row>
-    <row r="495" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
         <v>24</v>
       </c>
@@ -8288,7 +8287,7 @@
       <c r="Q495" s="4"/>
       <c r="R495" s="4"/>
     </row>
-    <row r="496" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
         <v>25</v>
       </c>
@@ -8312,7 +8311,7 @@
       <c r="Q496" s="4"/>
       <c r="R496" s="4"/>
     </row>
-    <row r="497" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
         <v>26</v>
       </c>
@@ -8336,7 +8335,7 @@
       <c r="Q497" s="4"/>
       <c r="R497" s="4"/>
     </row>
-    <row r="498" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
         <v>27</v>
       </c>
@@ -8360,7 +8359,7 @@
       <c r="Q498" s="4"/>
       <c r="R498" s="4"/>
     </row>
-    <row r="499" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
         <v>28</v>
       </c>
@@ -8384,7 +8383,7 @@
       <c r="Q499" s="4"/>
       <c r="R499" s="4"/>
     </row>
-    <row r="500" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
         <v>29</v>
       </c>
@@ -8408,7 +8407,7 @@
       <c r="Q500" s="4"/>
       <c r="R500" s="4"/>
     </row>
-    <row r="501" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
         <v>30</v>
       </c>
@@ -8432,7 +8431,7 @@
       <c r="Q501" s="4"/>
       <c r="R501" s="4"/>
     </row>
-    <row r="502" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A502" s="4" t="s">
         <v>31</v>
       </c>
@@ -8456,7 +8455,7 @@
       <c r="Q502" s="4"/>
       <c r="R502" s="4"/>
     </row>
-    <row r="503" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A503" s="1"/>
       <c r="B503" s="5"/>
       <c r="C503" s="4"/>
@@ -8472,7 +8471,7 @@
       <c r="Q503" s="4"/>
       <c r="R503" s="4"/>
     </row>
-    <row r="504" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A504" s="4" t="s">
         <v>33</v>
       </c>
@@ -8496,7 +8495,7 @@
       <c r="Q504" s="4"/>
       <c r="R504" s="4"/>
     </row>
-    <row r="505" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A505" s="4"/>
       <c r="B505" s="5"/>
       <c r="C505" s="4"/>
@@ -8512,7 +8511,7 @@
       <c r="Q505" s="4"/>
       <c r="R505" s="4"/>
     </row>
-    <row r="506" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A506" s="4">
         <v>30</v>
       </c>
@@ -8544,7 +8543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="507" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A507" s="4"/>
       <c r="B507" s="5"/>
       <c r="C507" s="4"/>
@@ -8560,7 +8559,7 @@
       <c r="Q507" s="4"/>
       <c r="R507" s="4"/>
     </row>
-    <row r="508" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A508" s="4" t="s">
         <v>34</v>
       </c>
@@ -8584,7 +8583,7 @@
       <c r="Q508" s="4"/>
       <c r="R508" s="4"/>
     </row>
-    <row r="509" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A509" s="4" t="s">
         <v>6</v>
       </c>
@@ -8608,7 +8607,7 @@
       <c r="Q509" s="4"/>
       <c r="R509" s="4"/>
     </row>
-    <row r="510" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A510" s="4" t="s">
         <v>7</v>
       </c>
@@ -8632,7 +8631,7 @@
       <c r="Q510" s="4"/>
       <c r="R510" s="4"/>
     </row>
-    <row r="511" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A511" s="4" t="s">
         <v>8</v>
       </c>
@@ -8656,7 +8655,7 @@
       <c r="Q511" s="4"/>
       <c r="R511" s="4"/>
     </row>
-    <row r="512" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A512" s="4" t="s">
         <v>9</v>
       </c>
@@ -8680,7 +8679,7 @@
       <c r="Q512" s="4"/>
       <c r="R512" s="4"/>
     </row>
-    <row r="513" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A513" s="4" t="s">
         <v>121</v>
       </c>
@@ -8700,7 +8699,7 @@
       <c r="Q513" s="4"/>
       <c r="R513" s="4"/>
     </row>
-    <row r="514" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A514" s="4"/>
       <c r="B514" s="5"/>
       <c r="C514" s="4"/>
@@ -8716,7 +8715,7 @@
       <c r="Q514" s="4"/>
       <c r="R514" s="4"/>
     </row>
-    <row r="515" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A515" s="4" t="s">
         <v>10</v>
       </c>
@@ -8740,7 +8739,7 @@
       <c r="Q515" s="4"/>
       <c r="R515" s="4"/>
     </row>
-    <row r="516" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A516" s="4" t="s">
         <v>11</v>
       </c>
@@ -8764,7 +8763,7 @@
       <c r="Q516" s="4"/>
       <c r="R516" s="4"/>
     </row>
-    <row r="517" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A517" s="4" t="s">
         <v>12</v>
       </c>
@@ -8788,7 +8787,7 @@
       <c r="Q517" s="4"/>
       <c r="R517" s="4"/>
     </row>
-    <row r="518" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A518" s="4" t="s">
         <v>13</v>
       </c>
@@ -8812,7 +8811,7 @@
       <c r="Q518" s="4"/>
       <c r="R518" s="4"/>
     </row>
-    <row r="519" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A519" s="4" t="s">
         <v>14</v>
       </c>
@@ -8836,7 +8835,7 @@
       <c r="Q519" s="4"/>
       <c r="R519" s="4"/>
     </row>
-    <row r="520" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A520" s="4" t="s">
         <v>15</v>
       </c>
@@ -8860,7 +8859,7 @@
       <c r="Q520" s="4"/>
       <c r="R520" s="4"/>
     </row>
-    <row r="521" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A521" s="4"/>
       <c r="B521" s="5"/>
       <c r="C521" s="4"/>
@@ -8876,7 +8875,7 @@
       <c r="Q521" s="4"/>
       <c r="R521" s="4"/>
     </row>
-    <row r="522" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A522" s="4" t="s">
         <v>16</v>
       </c>
@@ -8900,7 +8899,7 @@
       <c r="Q522" s="4"/>
       <c r="R522" s="4"/>
     </row>
-    <row r="523" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A523" s="4" t="s">
         <v>17</v>
       </c>
@@ -8924,7 +8923,7 @@
       <c r="Q523" s="4"/>
       <c r="R523" s="4"/>
     </row>
-    <row r="524" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A524" s="4" t="s">
         <v>19</v>
       </c>
@@ -8940,7 +8939,7 @@
         <v>19</v>
       </c>
       <c r="M524" s="6">
-        <v>1.15384615384615E+16</v>
+        <v>1.15384615384615</v>
       </c>
       <c r="N524" s="4"/>
       <c r="O524" s="4"/>
@@ -8948,7 +8947,7 @@
       <c r="Q524" s="4"/>
       <c r="R524" s="4"/>
     </row>
-    <row r="525" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A525" s="4" t="s">
         <v>20</v>
       </c>
@@ -8996,7 +8995,7 @@
       <c r="Q526" s="4"/>
       <c r="R526" s="4"/>
     </row>
-    <row r="527" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A527" s="4" t="s">
         <v>22</v>
       </c>
@@ -9020,7 +9019,7 @@
       <c r="Q527" s="4"/>
       <c r="R527" s="4"/>
     </row>
-    <row r="528" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A528" s="4"/>
       <c r="B528" s="5"/>
       <c r="C528" s="4"/>
@@ -9036,7 +9035,7 @@
       <c r="Q528" s="4"/>
       <c r="R528" s="4"/>
     </row>
-    <row r="529" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A529" s="4" t="s">
         <v>5</v>
       </c>
@@ -9060,7 +9059,7 @@
       <c r="Q529" s="4"/>
       <c r="R529" s="4"/>
     </row>
-    <row r="530" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A530" s="4" t="s">
         <v>23</v>
       </c>
@@ -9084,7 +9083,7 @@
       <c r="Q530" s="4"/>
       <c r="R530" s="4"/>
     </row>
-    <row r="531" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A531" s="4" t="s">
         <v>24</v>
       </c>
@@ -9108,7 +9107,7 @@
       <c r="Q531" s="4"/>
       <c r="R531" s="4"/>
     </row>
-    <row r="532" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A532" s="4" t="s">
         <v>25</v>
       </c>
@@ -9132,7 +9131,7 @@
       <c r="Q532" s="4"/>
       <c r="R532" s="4"/>
     </row>
-    <row r="533" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A533" s="4" t="s">
         <v>26</v>
       </c>
@@ -9156,7 +9155,7 @@
       <c r="Q533" s="4"/>
       <c r="R533" s="4"/>
     </row>
-    <row r="534" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A534" s="4" t="s">
         <v>27</v>
       </c>
@@ -9180,7 +9179,7 @@
       <c r="Q534" s="4"/>
       <c r="R534" s="4"/>
     </row>
-    <row r="535" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A535" s="4" t="s">
         <v>28</v>
       </c>
@@ -9204,7 +9203,7 @@
       <c r="Q535" s="4"/>
       <c r="R535" s="4"/>
     </row>
-    <row r="536" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A536" s="4" t="s">
         <v>29</v>
       </c>
@@ -9228,7 +9227,7 @@
       <c r="Q536" s="4"/>
       <c r="R536" s="4"/>
     </row>
-    <row r="537" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A537" s="4" t="s">
         <v>30</v>
       </c>
@@ -9252,7 +9251,7 @@
       <c r="Q537" s="4"/>
       <c r="R537" s="4"/>
     </row>
-    <row r="538" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A538" s="4" t="s">
         <v>31</v>
       </c>
@@ -9276,7 +9275,7 @@
       <c r="Q538" s="4"/>
       <c r="R538" s="4"/>
     </row>
-    <row r="539" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A539" s="4"/>
       <c r="B539" s="5"/>
       <c r="C539" s="4"/>
@@ -9292,7 +9291,7 @@
       <c r="Q539" s="4"/>
       <c r="R539" s="4"/>
     </row>
-    <row r="540" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A540" s="4" t="s">
         <v>33</v>
       </c>
@@ -9316,7 +9315,7 @@
       <c r="Q540" s="4"/>
       <c r="R540" s="4"/>
     </row>
-    <row r="541" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A541" s="4"/>
       <c r="B541" s="5"/>
       <c r="C541" s="4"/>
@@ -9332,7 +9331,7 @@
       <c r="Q541" s="4"/>
       <c r="R541" s="4"/>
     </row>
-    <row r="542" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A542" s="4">
         <v>30</v>
       </c>
@@ -9364,7 +9363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="543" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A543" s="4"/>
       <c r="B543" s="5"/>
       <c r="C543" s="4"/>
@@ -9380,7 +9379,7 @@
       <c r="Q543" s="4"/>
       <c r="R543" s="4"/>
     </row>
-    <row r="544" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A544" s="4" t="s">
         <v>34</v>
       </c>
@@ -9404,7 +9403,7 @@
       <c r="Q544" s="4"/>
       <c r="R544" s="4"/>
     </row>
-    <row r="545" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A545" s="4" t="s">
         <v>6</v>
       </c>
@@ -9428,7 +9427,7 @@
       <c r="Q545" s="4"/>
       <c r="R545" s="4"/>
     </row>
-    <row r="546" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A546" s="4" t="s">
         <v>7</v>
       </c>
@@ -9452,7 +9451,7 @@
       <c r="Q546" s="4"/>
       <c r="R546" s="4"/>
     </row>
-    <row r="547" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A547" s="4" t="s">
         <v>8</v>
       </c>
@@ -9476,7 +9475,7 @@
       <c r="Q547" s="4"/>
       <c r="R547" s="4"/>
     </row>
-    <row r="548" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A548" s="4" t="s">
         <v>9</v>
       </c>
@@ -9500,7 +9499,7 @@
       <c r="Q548" s="4"/>
       <c r="R548" s="4"/>
     </row>
-    <row r="549" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A549" s="4" t="s">
         <v>39</v>
       </c>
@@ -9520,7 +9519,7 @@
       <c r="Q549" s="4"/>
       <c r="R549" s="4"/>
     </row>
-    <row r="550" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A550" s="4"/>
       <c r="B550" s="5"/>
       <c r="C550" s="4"/>
@@ -9536,7 +9535,7 @@
       <c r="Q550" s="4"/>
       <c r="R550" s="4"/>
     </row>
-    <row r="551" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A551" s="4" t="s">
         <v>10</v>
       </c>
@@ -9560,7 +9559,7 @@
       <c r="Q551" s="4"/>
       <c r="R551" s="4"/>
     </row>
-    <row r="552" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A552" s="4" t="s">
         <v>11</v>
       </c>
@@ -9584,7 +9583,7 @@
       <c r="Q552" s="4"/>
       <c r="R552" s="4"/>
     </row>
-    <row r="553" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A553" s="4" t="s">
         <v>12</v>
       </c>
@@ -9608,7 +9607,7 @@
       <c r="Q553" s="4"/>
       <c r="R553" s="4"/>
     </row>
-    <row r="554" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A554" s="4" t="s">
         <v>13</v>
       </c>
@@ -9632,7 +9631,7 @@
       <c r="Q554" s="4"/>
       <c r="R554" s="4"/>
     </row>
-    <row r="555" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A555" s="4" t="s">
         <v>14</v>
       </c>
@@ -9656,7 +9655,7 @@
       <c r="Q555" s="4"/>
       <c r="R555" s="4"/>
     </row>
-    <row r="556" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A556" s="4" t="s">
         <v>15</v>
       </c>
@@ -9680,7 +9679,7 @@
       <c r="Q556" s="4"/>
       <c r="R556" s="4"/>
     </row>
-    <row r="557" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A557" s="4"/>
       <c r="B557" s="5"/>
       <c r="C557" s="4"/>
@@ -9696,7 +9695,7 @@
       <c r="Q557" s="4"/>
       <c r="R557" s="4"/>
     </row>
-    <row r="558" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A558" s="4" t="s">
         <v>16</v>
       </c>
@@ -9720,7 +9719,7 @@
       <c r="Q558" s="4"/>
       <c r="R558" s="4"/>
     </row>
-    <row r="559" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A559" s="4" t="s">
         <v>17</v>
       </c>
@@ -9744,12 +9743,12 @@
       <c r="Q559" s="4"/>
       <c r="R559" s="4"/>
     </row>
-    <row r="560" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A560" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B560" s="6">
-        <v>1.28571428571428E+16</v>
+        <v>1.28571428571428</v>
       </c>
       <c r="C560" s="4"/>
       <c r="D560" s="4"/>
@@ -9768,7 +9767,7 @@
       <c r="Q560" s="4"/>
       <c r="R560" s="4"/>
     </row>
-    <row r="561" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A561" s="4" t="s">
         <v>20</v>
       </c>
@@ -9816,7 +9815,7 @@
       <c r="Q562" s="4"/>
       <c r="R562" s="4"/>
     </row>
-    <row r="563" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A563" s="4" t="s">
         <v>22</v>
       </c>
@@ -9840,7 +9839,7 @@
       <c r="Q563" s="4"/>
       <c r="R563" s="4"/>
     </row>
-    <row r="564" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A564" s="4"/>
       <c r="B564" s="5"/>
       <c r="C564" s="4"/>
@@ -9856,7 +9855,7 @@
       <c r="Q564" s="4"/>
       <c r="R564" s="4"/>
     </row>
-    <row r="565" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A565" s="4" t="s">
         <v>5</v>
       </c>
@@ -9880,7 +9879,7 @@
       <c r="Q565" s="4"/>
       <c r="R565" s="4"/>
     </row>
-    <row r="566" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A566" s="4" t="s">
         <v>23</v>
       </c>
@@ -9904,7 +9903,7 @@
       <c r="Q566" s="4"/>
       <c r="R566" s="4"/>
     </row>
-    <row r="567" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A567" s="4" t="s">
         <v>24</v>
       </c>
@@ -9928,7 +9927,7 @@
       <c r="Q567" s="4"/>
       <c r="R567" s="4"/>
     </row>
-    <row r="568" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A568" s="4" t="s">
         <v>25</v>
       </c>
@@ -9952,7 +9951,7 @@
       <c r="Q568" s="4"/>
       <c r="R568" s="4"/>
     </row>
-    <row r="569" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A569" s="4" t="s">
         <v>26</v>
       </c>
@@ -9976,7 +9975,7 @@
       <c r="Q569" s="4"/>
       <c r="R569" s="4"/>
     </row>
-    <row r="570" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A570" s="4" t="s">
         <v>27</v>
       </c>
@@ -10000,7 +9999,7 @@
       <c r="Q570" s="4"/>
       <c r="R570" s="4"/>
     </row>
-    <row r="571" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A571" s="4" t="s">
         <v>28</v>
       </c>
@@ -10024,7 +10023,7 @@
       <c r="Q571" s="4"/>
       <c r="R571" s="4"/>
     </row>
-    <row r="572" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A572" s="4" t="s">
         <v>29</v>
       </c>
@@ -10048,7 +10047,7 @@
       <c r="Q572" s="4"/>
       <c r="R572" s="4"/>
     </row>
-    <row r="573" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A573" s="4" t="s">
         <v>30</v>
       </c>
@@ -10072,7 +10071,7 @@
       <c r="Q573" s="4"/>
       <c r="R573" s="4"/>
     </row>
-    <row r="574" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A574" s="4" t="s">
         <v>31</v>
       </c>
@@ -10096,7 +10095,7 @@
       <c r="Q574" s="4"/>
       <c r="R574" s="4"/>
     </row>
-    <row r="575" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A575" s="4"/>
       <c r="B575" s="5"/>
       <c r="C575" s="4"/>
@@ -10112,7 +10111,7 @@
       <c r="Q575" s="4"/>
       <c r="R575" s="4"/>
     </row>
-    <row r="576" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A576" s="4" t="s">
         <v>33</v>
       </c>
@@ -10136,7 +10135,7 @@
       <c r="Q576" s="4"/>
       <c r="R576" s="4"/>
     </row>
-    <row r="577" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A577" s="4"/>
       <c r="B577" s="5"/>
       <c r="C577" s="4"/>
@@ -10152,7 +10151,7 @@
       <c r="Q577" s="4"/>
       <c r="R577" s="4"/>
     </row>
-    <row r="578" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A578" s="4">
         <v>30</v>
       </c>
@@ -10184,7 +10183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="579" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A579" s="4"/>
       <c r="B579" s="5"/>
       <c r="C579" s="4"/>
@@ -10200,7 +10199,7 @@
       <c r="Q579" s="4"/>
       <c r="R579" s="4"/>
     </row>
-    <row r="580" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A580" s="4" t="s">
         <v>34</v>
       </c>
@@ -10224,7 +10223,7 @@
       <c r="Q580" s="4"/>
       <c r="R580" s="4"/>
     </row>
-    <row r="581" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A581" s="4" t="s">
         <v>6</v>
       </c>
@@ -10248,7 +10247,7 @@
       <c r="Q581" s="4"/>
       <c r="R581" s="4"/>
     </row>
-    <row r="582" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A582" s="4" t="s">
         <v>7</v>
       </c>
@@ -10272,7 +10271,7 @@
       <c r="Q582" s="4"/>
       <c r="R582" s="4"/>
     </row>
-    <row r="583" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A583" s="4" t="s">
         <v>8</v>
       </c>
@@ -10296,7 +10295,7 @@
       <c r="Q583" s="4"/>
       <c r="R583" s="4"/>
     </row>
-    <row r="584" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A584" s="4" t="s">
         <v>9</v>
       </c>
@@ -10320,7 +10319,7 @@
       <c r="Q584" s="4"/>
       <c r="R584" s="4"/>
     </row>
-    <row r="585" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A585" s="4" t="s">
         <v>131</v>
       </c>
@@ -10340,7 +10339,7 @@
       <c r="Q585" s="4"/>
       <c r="R585" s="4"/>
     </row>
-    <row r="586" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A586" s="4"/>
       <c r="B586" s="5"/>
       <c r="C586" s="4"/>
@@ -10356,7 +10355,7 @@
       <c r="Q586" s="4"/>
       <c r="R586" s="4"/>
     </row>
-    <row r="587" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A587" s="4" t="s">
         <v>10</v>
       </c>
@@ -10380,7 +10379,7 @@
       <c r="Q587" s="4"/>
       <c r="R587" s="4"/>
     </row>
-    <row r="588" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A588" s="4" t="s">
         <v>11</v>
       </c>
@@ -10404,7 +10403,7 @@
       <c r="Q588" s="4"/>
       <c r="R588" s="4"/>
     </row>
-    <row r="589" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A589" s="4" t="s">
         <v>12</v>
       </c>
@@ -10428,7 +10427,7 @@
       <c r="Q589" s="4"/>
       <c r="R589" s="4"/>
     </row>
-    <row r="590" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A590" s="4" t="s">
         <v>13</v>
       </c>
@@ -10452,7 +10451,7 @@
       <c r="Q590" s="4"/>
       <c r="R590" s="4"/>
     </row>
-    <row r="591" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A591" s="4" t="s">
         <v>14</v>
       </c>
@@ -10476,7 +10475,7 @@
       <c r="Q591" s="4"/>
       <c r="R591" s="4"/>
     </row>
-    <row r="592" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A592" s="4" t="s">
         <v>15</v>
       </c>
@@ -10500,7 +10499,7 @@
       <c r="Q592" s="4"/>
       <c r="R592" s="4"/>
     </row>
-    <row r="593" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A593" s="4"/>
       <c r="B593" s="5"/>
       <c r="C593" s="4"/>
@@ -10516,7 +10515,7 @@
       <c r="Q593" s="4"/>
       <c r="R593" s="4"/>
     </row>
-    <row r="594" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A594" s="4" t="s">
         <v>16</v>
       </c>
@@ -10540,7 +10539,7 @@
       <c r="Q594" s="4"/>
       <c r="R594" s="4"/>
     </row>
-    <row r="595" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A595" s="4" t="s">
         <v>17</v>
       </c>
@@ -10564,12 +10563,12 @@
       <c r="Q595" s="4"/>
       <c r="R595" s="4"/>
     </row>
-    <row r="596" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A596" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B596" s="6">
-        <v>1.21428571428571E+16</v>
+        <v>1.21428571428571</v>
       </c>
       <c r="C596" s="4"/>
       <c r="D596" s="4"/>
@@ -10588,7 +10587,7 @@
       <c r="Q596" s="4"/>
       <c r="R596" s="4"/>
     </row>
-    <row r="597" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A597" s="4" t="s">
         <v>20</v>
       </c>
@@ -10636,7 +10635,7 @@
       <c r="Q598" s="4"/>
       <c r="R598" s="4"/>
     </row>
-    <row r="599" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A599" s="4" t="s">
         <v>22</v>
       </c>
@@ -10660,7 +10659,7 @@
       <c r="Q599" s="4"/>
       <c r="R599" s="4"/>
     </row>
-    <row r="600" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A600" s="4"/>
       <c r="B600" s="5"/>
       <c r="C600" s="4"/>
@@ -10676,7 +10675,7 @@
       <c r="Q600" s="4"/>
       <c r="R600" s="4"/>
     </row>
-    <row r="601" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A601" s="4" t="s">
         <v>5</v>
       </c>
@@ -10700,7 +10699,7 @@
       <c r="Q601" s="4"/>
       <c r="R601" s="4"/>
     </row>
-    <row r="602" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A602" s="4" t="s">
         <v>23</v>
       </c>
@@ -10724,7 +10723,7 @@
       <c r="Q602" s="4"/>
       <c r="R602" s="4"/>
     </row>
-    <row r="603" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A603" s="4" t="s">
         <v>24</v>
       </c>
@@ -10748,7 +10747,7 @@
       <c r="Q603" s="4"/>
       <c r="R603" s="4"/>
     </row>
-    <row r="604" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A604" s="4" t="s">
         <v>25</v>
       </c>
@@ -10772,7 +10771,7 @@
       <c r="Q604" s="4"/>
       <c r="R604" s="4"/>
     </row>
-    <row r="605" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A605" s="4" t="s">
         <v>26</v>
       </c>
@@ -10796,7 +10795,7 @@
       <c r="Q605" s="4"/>
       <c r="R605" s="4"/>
     </row>
-    <row r="606" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A606" s="4" t="s">
         <v>27</v>
       </c>
@@ -10820,7 +10819,7 @@
       <c r="Q606" s="4"/>
       <c r="R606" s="4"/>
     </row>
-    <row r="607" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A607" s="4" t="s">
         <v>28</v>
       </c>
@@ -10844,7 +10843,7 @@
       <c r="Q607" s="4"/>
       <c r="R607" s="4"/>
     </row>
-    <row r="608" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A608" s="4" t="s">
         <v>29</v>
       </c>
@@ -10868,7 +10867,7 @@
       <c r="Q608" s="4"/>
       <c r="R608" s="4"/>
     </row>
-    <row r="609" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A609" s="4" t="s">
         <v>30</v>
       </c>
@@ -10892,7 +10891,7 @@
       <c r="Q609" s="4"/>
       <c r="R609" s="4"/>
     </row>
-    <row r="610" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A610" s="4" t="s">
         <v>31</v>
       </c>
@@ -10916,7 +10915,7 @@
       <c r="Q610" s="4"/>
       <c r="R610" s="4"/>
     </row>
-    <row r="611" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A611" s="4"/>
       <c r="B611" s="5"/>
       <c r="C611" s="4"/>
@@ -10932,7 +10931,7 @@
       <c r="Q611" s="4"/>
       <c r="R611" s="4"/>
     </row>
-    <row r="612" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A612" s="4" t="s">
         <v>33</v>
       </c>
@@ -10956,7 +10955,7 @@
       <c r="Q612" s="4"/>
       <c r="R612" s="4"/>
     </row>
-    <row r="613" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A613" s="4"/>
       <c r="B613" s="5"/>
       <c r="C613" s="4"/>
@@ -10972,7 +10971,7 @@
       <c r="Q613" s="4"/>
       <c r="R613" s="4"/>
     </row>
-    <row r="614" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A614" s="4">
         <v>30</v>
       </c>
@@ -11004,7 +11003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="615" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A615" s="4"/>
       <c r="B615" s="5"/>
       <c r="C615" s="4"/>
@@ -11020,7 +11019,7 @@
       <c r="Q615" s="4"/>
       <c r="R615" s="4"/>
     </row>
-    <row r="616" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A616" s="4" t="s">
         <v>34</v>
       </c>
@@ -11044,7 +11043,7 @@
       <c r="Q616" s="4"/>
       <c r="R616" s="4"/>
     </row>
-    <row r="617" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A617" s="4" t="s">
         <v>6</v>
       </c>
@@ -11068,7 +11067,7 @@
       <c r="Q617" s="4"/>
       <c r="R617" s="4"/>
     </row>
-    <row r="618" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A618" s="4" t="s">
         <v>7</v>
       </c>
@@ -11092,7 +11091,7 @@
       <c r="Q618" s="4"/>
       <c r="R618" s="4"/>
     </row>
-    <row r="619" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A619" s="4" t="s">
         <v>8</v>
       </c>
@@ -11116,7 +11115,7 @@
       <c r="Q619" s="4"/>
       <c r="R619" s="4"/>
     </row>
-    <row r="620" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A620" s="4" t="s">
         <v>9</v>
       </c>
@@ -11140,7 +11139,7 @@
       <c r="Q620" s="4"/>
       <c r="R620" s="4"/>
     </row>
-    <row r="621" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A621" s="4" t="s">
         <v>136</v>
       </c>
@@ -11160,7 +11159,7 @@
       <c r="Q621" s="4"/>
       <c r="R621" s="4"/>
     </row>
-    <row r="622" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A622" s="4"/>
       <c r="B622" s="5"/>
       <c r="C622" s="4"/>
@@ -11176,7 +11175,7 @@
       <c r="Q622" s="4"/>
       <c r="R622" s="4"/>
     </row>
-    <row r="623" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A623" s="4" t="s">
         <v>10</v>
       </c>
@@ -11200,7 +11199,7 @@
       <c r="Q623" s="4"/>
       <c r="R623" s="4"/>
     </row>
-    <row r="624" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A624" s="4" t="s">
         <v>11</v>
       </c>
@@ -11224,7 +11223,7 @@
       <c r="Q624" s="4"/>
       <c r="R624" s="4"/>
     </row>
-    <row r="625" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A625" s="4" t="s">
         <v>12</v>
       </c>
@@ -11248,7 +11247,7 @@
       <c r="Q625" s="4"/>
       <c r="R625" s="4"/>
     </row>
-    <row r="626" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A626" s="4" t="s">
         <v>13</v>
       </c>
@@ -11272,7 +11271,7 @@
       <c r="Q626" s="4"/>
       <c r="R626" s="4"/>
     </row>
-    <row r="627" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A627" s="4" t="s">
         <v>14</v>
       </c>
@@ -11296,7 +11295,7 @@
       <c r="Q627" s="4"/>
       <c r="R627" s="4"/>
     </row>
-    <row r="628" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A628" s="4" t="s">
         <v>15</v>
       </c>
@@ -11320,7 +11319,7 @@
       <c r="Q628" s="4"/>
       <c r="R628" s="4"/>
     </row>
-    <row r="629" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A629" s="4"/>
       <c r="B629" s="5"/>
       <c r="C629" s="4"/>
@@ -11336,7 +11335,7 @@
       <c r="Q629" s="4"/>
       <c r="R629" s="4"/>
     </row>
-    <row r="630" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A630" s="4" t="s">
         <v>16</v>
       </c>
@@ -11360,7 +11359,7 @@
       <c r="Q630" s="4"/>
       <c r="R630" s="4"/>
     </row>
-    <row r="631" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A631" s="4" t="s">
         <v>17</v>
       </c>
@@ -11384,7 +11383,7 @@
       <c r="Q631" s="4"/>
       <c r="R631" s="4"/>
     </row>
-    <row r="632" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A632" s="4" t="s">
         <v>19</v>
       </c>
@@ -11400,7 +11399,7 @@
         <v>19</v>
       </c>
       <c r="M632" s="6">
-        <v>1.33333333333333E+16</v>
+        <v>1.3333333333333299</v>
       </c>
       <c r="N632" s="4"/>
       <c r="O632" s="4"/>
@@ -11408,7 +11407,7 @@
       <c r="Q632" s="4"/>
       <c r="R632" s="4"/>
     </row>
-    <row r="633" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A633" s="4" t="s">
         <v>20</v>
       </c>
@@ -11456,7 +11455,7 @@
       <c r="Q634" s="4"/>
       <c r="R634" s="4"/>
     </row>
-    <row r="635" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A635" s="4" t="s">
         <v>22</v>
       </c>
@@ -11480,7 +11479,7 @@
       <c r="Q635" s="4"/>
       <c r="R635" s="4"/>
     </row>
-    <row r="636" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A636" s="4"/>
       <c r="B636" s="5"/>
       <c r="C636" s="4"/>
@@ -11496,7 +11495,7 @@
       <c r="Q636" s="4"/>
       <c r="R636" s="4"/>
     </row>
-    <row r="637" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A637" s="4" t="s">
         <v>5</v>
       </c>
@@ -11520,7 +11519,7 @@
       <c r="Q637" s="4"/>
       <c r="R637" s="4"/>
     </row>
-    <row r="638" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A638" s="4" t="s">
         <v>23</v>
       </c>
@@ -11544,7 +11543,7 @@
       <c r="Q638" s="4"/>
       <c r="R638" s="4"/>
     </row>
-    <row r="639" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A639" s="4" t="s">
         <v>24</v>
       </c>
@@ -11568,7 +11567,7 @@
       <c r="Q639" s="4"/>
       <c r="R639" s="4"/>
     </row>
-    <row r="640" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A640" s="4" t="s">
         <v>25</v>
       </c>
@@ -11592,7 +11591,7 @@
       <c r="Q640" s="4"/>
       <c r="R640" s="4"/>
     </row>
-    <row r="641" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A641" s="4" t="s">
         <v>26</v>
       </c>
@@ -11616,7 +11615,7 @@
       <c r="Q641" s="4"/>
       <c r="R641" s="4"/>
     </row>
-    <row r="642" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A642" s="4" t="s">
         <v>27</v>
       </c>
@@ -11640,7 +11639,7 @@
       <c r="Q642" s="4"/>
       <c r="R642" s="4"/>
     </row>
-    <row r="643" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A643" s="4" t="s">
         <v>28</v>
       </c>
@@ -11664,7 +11663,7 @@
       <c r="Q643" s="4"/>
       <c r="R643" s="4"/>
     </row>
-    <row r="644" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A644" s="4" t="s">
         <v>29</v>
       </c>
@@ -11688,7 +11687,7 @@
       <c r="Q644" s="4"/>
       <c r="R644" s="4"/>
     </row>
-    <row r="645" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A645" s="4" t="s">
         <v>30</v>
       </c>
@@ -11712,7 +11711,7 @@
       <c r="Q645" s="4"/>
       <c r="R645" s="4"/>
     </row>
-    <row r="646" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A646" s="4" t="s">
         <v>31</v>
       </c>
@@ -11736,7 +11735,7 @@
       <c r="Q646" s="4"/>
       <c r="R646" s="4"/>
     </row>
-    <row r="647" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A647" s="4"/>
       <c r="B647" s="5"/>
       <c r="C647" s="4"/>
@@ -11752,7 +11751,7 @@
       <c r="Q647" s="4"/>
       <c r="R647" s="4"/>
     </row>
-    <row r="648" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A648" s="4" t="s">
         <v>33</v>
       </c>
@@ -11776,7 +11775,7 @@
       <c r="Q648" s="4"/>
       <c r="R648" s="4"/>
     </row>
-    <row r="649" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A649" s="4"/>
       <c r="B649" s="5"/>
       <c r="C649" s="4"/>
@@ -11792,7 +11791,7 @@
       <c r="Q649" s="4"/>
       <c r="R649" s="4"/>
     </row>
-    <row r="650" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A650" s="4"/>
       <c r="B650" s="5"/>
       <c r="C650" s="4"/>
@@ -11808,7 +11807,7 @@
       <c r="Q650" s="4"/>
       <c r="R650" s="4"/>
     </row>
-    <row r="651" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A651" s="4"/>
       <c r="B651" s="5"/>
       <c r="C651" s="4"/>
@@ -11824,7 +11823,7 @@
       <c r="Q651" s="4"/>
       <c r="R651" s="4"/>
     </row>
-    <row r="652" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A652" s="4"/>
       <c r="B652" s="5"/>
       <c r="C652" s="4"/>
@@ -11840,7 +11839,7 @@
       <c r="Q652" s="4"/>
       <c r="R652" s="4"/>
     </row>
-    <row r="653" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A653" s="4"/>
       <c r="B653" s="5"/>
       <c r="C653" s="4"/>
@@ -11856,7 +11855,7 @@
       <c r="Q653" s="4"/>
       <c r="R653" s="4"/>
     </row>
-    <row r="654" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A654" s="4"/>
       <c r="B654" s="5"/>
       <c r="C654" s="4"/>
@@ -11872,7 +11871,7 @@
       <c r="Q654" s="4"/>
       <c r="R654" s="4"/>
     </row>
-    <row r="655" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A655" s="4"/>
       <c r="B655" s="5"/>
       <c r="C655" s="4"/>
@@ -11888,7 +11887,7 @@
       <c r="Q655" s="4"/>
       <c r="R655" s="4"/>
     </row>
-    <row r="656" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A656" s="4"/>
       <c r="B656" s="5"/>
       <c r="C656" s="4"/>
@@ -11904,7 +11903,7 @@
       <c r="Q656" s="4"/>
       <c r="R656" s="4"/>
     </row>
-    <row r="657" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A657" s="4"/>
       <c r="B657" s="5"/>
       <c r="C657" s="4"/>
@@ -11920,7 +11919,7 @@
       <c r="Q657" s="4"/>
       <c r="R657" s="4"/>
     </row>
-    <row r="658" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A658" s="4"/>
       <c r="B658" s="5"/>
       <c r="C658" s="4"/>
@@ -11936,7 +11935,7 @@
       <c r="Q658" s="4"/>
       <c r="R658" s="4"/>
     </row>
-    <row r="659" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A659" s="4"/>
       <c r="B659" s="5"/>
       <c r="C659" s="4"/>
@@ -11952,7 +11951,7 @@
       <c r="Q659" s="4"/>
       <c r="R659" s="4"/>
     </row>
-    <row r="660" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A660" s="4"/>
       <c r="B660" s="5"/>
       <c r="C660" s="4"/>
@@ -11968,7 +11967,7 @@
       <c r="Q660" s="4"/>
       <c r="R660" s="4"/>
     </row>
-    <row r="661" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A661" s="4"/>
       <c r="B661" s="5"/>
       <c r="C661" s="4"/>
@@ -11984,7 +11983,7 @@
       <c r="Q661" s="4"/>
       <c r="R661" s="4"/>
     </row>
-    <row r="662" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A662" s="4"/>
       <c r="B662" s="5"/>
       <c r="C662" s="4"/>
@@ -12000,7 +11999,7 @@
       <c r="Q662" s="4"/>
       <c r="R662" s="4"/>
     </row>
-    <row r="663" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A663" s="4"/>
       <c r="B663" s="5"/>
       <c r="C663" s="4"/>
@@ -12016,7 +12015,7 @@
       <c r="Q663" s="4"/>
       <c r="R663" s="4"/>
     </row>
-    <row r="664" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A664" s="4"/>
       <c r="B664" s="5"/>
       <c r="C664" s="4"/>
@@ -12032,7 +12031,7 @@
       <c r="Q664" s="4"/>
       <c r="R664" s="4"/>
     </row>
-    <row r="665" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A665" s="4"/>
       <c r="B665" s="5"/>
       <c r="C665" s="4"/>
@@ -12048,7 +12047,7 @@
       <c r="Q665" s="4"/>
       <c r="R665" s="4"/>
     </row>
-    <row r="666" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A666" s="4"/>
       <c r="B666" s="5"/>
       <c r="C666" s="4"/>
@@ -12064,7 +12063,7 @@
       <c r="Q666" s="4"/>
       <c r="R666" s="4"/>
     </row>
-    <row r="667" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A667" s="4"/>
       <c r="B667" s="5"/>
       <c r="C667" s="4"/>
@@ -12080,7 +12079,7 @@
       <c r="Q667" s="4"/>
       <c r="R667" s="4"/>
     </row>
-    <row r="668" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A668" s="4"/>
       <c r="B668" s="5"/>
       <c r="C668" s="4"/>
@@ -12096,7 +12095,7 @@
       <c r="Q668" s="4"/>
       <c r="R668" s="4"/>
     </row>
-    <row r="669" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A669" s="4"/>
       <c r="B669" s="5"/>
       <c r="C669" s="4"/>
@@ -12112,7 +12111,7 @@
       <c r="Q669" s="4"/>
       <c r="R669" s="4"/>
     </row>
-    <row r="670" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A670" s="4"/>
       <c r="B670" s="5"/>
       <c r="C670" s="4"/>
@@ -12128,7 +12127,7 @@
       <c r="Q670" s="4"/>
       <c r="R670" s="4"/>
     </row>
-    <row r="671" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A671" s="4"/>
       <c r="B671" s="5"/>
       <c r="C671" s="4"/>
@@ -12144,7 +12143,7 @@
       <c r="Q671" s="4"/>
       <c r="R671" s="4"/>
     </row>
-    <row r="672" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A672" s="4"/>
       <c r="B672" s="5"/>
       <c r="C672" s="4"/>
@@ -12160,7 +12159,7 @@
       <c r="Q672" s="4"/>
       <c r="R672" s="4"/>
     </row>
-    <row r="673" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A673" s="4"/>
       <c r="B673" s="5"/>
       <c r="C673" s="4"/>
@@ -12176,7 +12175,7 @@
       <c r="Q673" s="4"/>
       <c r="R673" s="4"/>
     </row>
-    <row r="674" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A674" s="4"/>
       <c r="B674" s="5"/>
       <c r="C674" s="4"/>
@@ -12192,7 +12191,7 @@
       <c r="Q674" s="4"/>
       <c r="R674" s="4"/>
     </row>
-    <row r="675" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A675" s="4"/>
       <c r="B675" s="5"/>
       <c r="C675" s="4"/>
@@ -12208,7 +12207,7 @@
       <c r="Q675" s="4"/>
       <c r="R675" s="4"/>
     </row>
-    <row r="676" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A676" s="4"/>
       <c r="B676" s="5"/>
       <c r="C676" s="4"/>
@@ -12224,7 +12223,7 @@
       <c r="Q676" s="4"/>
       <c r="R676" s="4"/>
     </row>
-    <row r="677" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A677" s="4"/>
       <c r="B677" s="5"/>
       <c r="C677" s="4"/>
@@ -12240,7 +12239,7 @@
       <c r="Q677" s="4"/>
       <c r="R677" s="4"/>
     </row>
-    <row r="678" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A678" s="4"/>
       <c r="B678" s="5"/>
       <c r="C678" s="4"/>
@@ -12256,7 +12255,7 @@
       <c r="Q678" s="4"/>
       <c r="R678" s="4"/>
     </row>
-    <row r="679" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A679" s="4"/>
       <c r="B679" s="5"/>
       <c r="C679" s="4"/>
@@ -12272,7 +12271,7 @@
       <c r="Q679" s="4"/>
       <c r="R679" s="4"/>
     </row>
-    <row r="680" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A680" s="4"/>
       <c r="B680" s="5"/>
       <c r="C680" s="4"/>
@@ -12288,7 +12287,7 @@
       <c r="Q680" s="4"/>
       <c r="R680" s="4"/>
     </row>
-    <row r="681" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A681" s="4"/>
       <c r="B681" s="5"/>
       <c r="C681" s="4"/>
@@ -12304,7 +12303,7 @@
       <c r="Q681" s="4"/>
       <c r="R681" s="4"/>
     </row>
-    <row r="682" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A682" s="4"/>
       <c r="B682" s="5"/>
       <c r="C682" s="4"/>
@@ -12320,7 +12319,7 @@
       <c r="Q682" s="4"/>
       <c r="R682" s="4"/>
     </row>
-    <row r="683" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A683" s="4"/>
       <c r="B683" s="5"/>
       <c r="C683" s="4"/>
@@ -12336,7 +12335,7 @@
       <c r="Q683" s="4"/>
       <c r="R683" s="4"/>
     </row>
-    <row r="684" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A684" s="4"/>
       <c r="B684" s="5"/>
       <c r="C684" s="4"/>
@@ -12352,7 +12351,7 @@
       <c r="Q684" s="4"/>
       <c r="R684" s="4"/>
     </row>
-    <row r="685" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A685" s="4"/>
       <c r="B685" s="5"/>
       <c r="C685" s="4"/>
@@ -12368,7 +12367,7 @@
       <c r="Q685" s="4"/>
       <c r="R685" s="4"/>
     </row>
-    <row r="686" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A686" s="4"/>
       <c r="B686" s="5"/>
       <c r="C686" s="4"/>
@@ -12384,7 +12383,7 @@
       <c r="Q686" s="4"/>
       <c r="R686" s="4"/>
     </row>
-    <row r="687" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A687" s="4"/>
       <c r="B687" s="5"/>
       <c r="C687" s="4"/>
@@ -12400,7 +12399,7 @@
       <c r="Q687" s="4"/>
       <c r="R687" s="4"/>
     </row>
-    <row r="688" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A688" s="4"/>
       <c r="B688" s="5"/>
       <c r="C688" s="4"/>
@@ -12416,7 +12415,7 @@
       <c r="Q688" s="4"/>
       <c r="R688" s="4"/>
     </row>
-    <row r="689" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A689" s="4"/>
       <c r="B689" s="5"/>
       <c r="C689" s="4"/>
@@ -12432,7 +12431,7 @@
       <c r="Q689" s="4"/>
       <c r="R689" s="4"/>
     </row>
-    <row r="690" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A690" s="4"/>
       <c r="B690" s="5"/>
       <c r="C690" s="4"/>
@@ -12448,7 +12447,7 @@
       <c r="Q690" s="4"/>
       <c r="R690" s="4"/>
     </row>
-    <row r="691" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A691" s="4"/>
       <c r="B691" s="5"/>
       <c r="C691" s="4"/>
@@ -12464,7 +12463,7 @@
       <c r="Q691" s="4"/>
       <c r="R691" s="4"/>
     </row>
-    <row r="692" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A692" s="4"/>
       <c r="B692" s="5"/>
       <c r="C692" s="4"/>
@@ -12480,7 +12479,7 @@
       <c r="Q692" s="4"/>
       <c r="R692" s="4"/>
     </row>
-    <row r="693" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A693" s="4"/>
       <c r="B693" s="5"/>
       <c r="C693" s="4"/>
@@ -12496,7 +12495,7 @@
       <c r="Q693" s="4"/>
       <c r="R693" s="4"/>
     </row>
-    <row r="694" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A694" s="4"/>
       <c r="B694" s="5"/>
       <c r="C694" s="4"/>
@@ -12512,7 +12511,7 @@
       <c r="Q694" s="4"/>
       <c r="R694" s="4"/>
     </row>
-    <row r="695" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A695" s="4"/>
       <c r="B695" s="5"/>
       <c r="C695" s="4"/>
@@ -12528,7 +12527,7 @@
       <c r="Q695" s="4"/>
       <c r="R695" s="4"/>
     </row>
-    <row r="696" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A696" s="4"/>
       <c r="B696" s="5"/>
       <c r="C696" s="4"/>
@@ -12544,7 +12543,7 @@
       <c r="Q696" s="4"/>
       <c r="R696" s="4"/>
     </row>
-    <row r="697" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A697" s="4"/>
       <c r="B697" s="5"/>
       <c r="C697" s="4"/>
@@ -12560,7 +12559,7 @@
       <c r="Q697" s="4"/>
       <c r="R697" s="4"/>
     </row>
-    <row r="698" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A698" s="4"/>
       <c r="B698" s="5"/>
       <c r="C698" s="4"/>
@@ -12576,7 +12575,7 @@
       <c r="Q698" s="4"/>
       <c r="R698" s="4"/>
     </row>
-    <row r="699" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A699" s="4"/>
       <c r="B699" s="5"/>
       <c r="C699" s="4"/>
@@ -12592,7 +12591,7 @@
       <c r="Q699" s="4"/>
       <c r="R699" s="4"/>
     </row>
-    <row r="700" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A700" s="4"/>
       <c r="B700" s="5"/>
       <c r="C700" s="4"/>
@@ -12608,7 +12607,7 @@
       <c r="Q700" s="4"/>
       <c r="R700" s="4"/>
     </row>
-    <row r="701" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A701" s="4"/>
       <c r="B701" s="5"/>
       <c r="C701" s="4"/>
@@ -12624,7 +12623,7 @@
       <c r="Q701" s="4"/>
       <c r="R701" s="4"/>
     </row>
-    <row r="702" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A702" s="4"/>
       <c r="B702" s="5"/>
       <c r="C702" s="4"/>
@@ -12640,7 +12639,7 @@
       <c r="Q702" s="4"/>
       <c r="R702" s="4"/>
     </row>
-    <row r="703" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A703" s="4"/>
       <c r="B703" s="5"/>
       <c r="C703" s="4"/>
@@ -12656,7 +12655,7 @@
       <c r="Q703" s="4"/>
       <c r="R703" s="4"/>
     </row>
-    <row r="704" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A704" s="4"/>
       <c r="B704" s="5"/>
       <c r="C704" s="4"/>
@@ -12672,7 +12671,7 @@
       <c r="Q704" s="4"/>
       <c r="R704" s="4"/>
     </row>
-    <row r="705" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A705" s="4"/>
       <c r="B705" s="5"/>
       <c r="C705" s="4"/>
@@ -12688,7 +12687,7 @@
       <c r="Q705" s="4"/>
       <c r="R705" s="4"/>
     </row>
-    <row r="706" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A706" s="4"/>
       <c r="B706" s="5"/>
       <c r="C706" s="4"/>
@@ -12704,7 +12703,7 @@
       <c r="Q706" s="4"/>
       <c r="R706" s="4"/>
     </row>
-    <row r="707" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A707" s="4"/>
       <c r="B707" s="5"/>
       <c r="C707" s="4"/>
@@ -12720,7 +12719,7 @@
       <c r="Q707" s="4"/>
       <c r="R707" s="4"/>
     </row>
-    <row r="708" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A708" s="4"/>
       <c r="B708" s="5"/>
       <c r="C708" s="4"/>
@@ -12736,7 +12735,7 @@
       <c r="Q708" s="4"/>
       <c r="R708" s="4"/>
     </row>
-    <row r="709" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A709" s="4"/>
       <c r="B709" s="5"/>
       <c r="C709" s="4"/>
@@ -12752,7 +12751,7 @@
       <c r="Q709" s="4"/>
       <c r="R709" s="4"/>
     </row>
-    <row r="710" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A710" s="4"/>
       <c r="B710" s="5"/>
       <c r="C710" s="4"/>
@@ -12768,7 +12767,7 @@
       <c r="Q710" s="4"/>
       <c r="R710" s="4"/>
     </row>
-    <row r="711" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A711" s="4"/>
       <c r="B711" s="5"/>
       <c r="C711" s="4"/>
@@ -12784,7 +12783,7 @@
       <c r="Q711" s="4"/>
       <c r="R711" s="4"/>
     </row>
-    <row r="712" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A712" s="4"/>
       <c r="B712" s="5"/>
       <c r="C712" s="4"/>
@@ -12800,7 +12799,7 @@
       <c r="Q712" s="4"/>
       <c r="R712" s="4"/>
     </row>
-    <row r="713" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A713" s="4"/>
       <c r="B713" s="5"/>
       <c r="C713" s="4"/>
@@ -12816,7 +12815,7 @@
       <c r="Q713" s="4"/>
       <c r="R713" s="4"/>
     </row>
-    <row r="714" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A714" s="4"/>
       <c r="B714" s="5"/>
       <c r="C714" s="4"/>
@@ -12832,7 +12831,7 @@
       <c r="Q714" s="4"/>
       <c r="R714" s="4"/>
     </row>
-    <row r="715" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A715" s="4"/>
       <c r="B715" s="5"/>
       <c r="C715" s="4"/>
@@ -12848,7 +12847,7 @@
       <c r="Q715" s="4"/>
       <c r="R715" s="4"/>
     </row>
-    <row r="716" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A716" s="4"/>
       <c r="B716" s="5"/>
       <c r="C716" s="4"/>
@@ -12864,7 +12863,7 @@
       <c r="Q716" s="4"/>
       <c r="R716" s="4"/>
     </row>
-    <row r="717" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A717" s="4"/>
       <c r="B717" s="5"/>
       <c r="C717" s="4"/>
@@ -12880,7 +12879,7 @@
       <c r="Q717" s="4"/>
       <c r="R717" s="4"/>
     </row>
-    <row r="718" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A718" s="4"/>
       <c r="B718" s="5"/>
       <c r="C718" s="4"/>
@@ -12896,7 +12895,7 @@
       <c r="Q718" s="4"/>
       <c r="R718" s="4"/>
     </row>
-    <row r="719" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A719" s="4"/>
       <c r="B719" s="5"/>
       <c r="C719" s="4"/>
@@ -12912,7 +12911,7 @@
       <c r="Q719" s="4"/>
       <c r="R719" s="4"/>
     </row>
-    <row r="720" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A720" s="4"/>
       <c r="B720" s="5"/>
       <c r="C720" s="4"/>
@@ -12928,7 +12927,7 @@
       <c r="Q720" s="4"/>
       <c r="R720" s="4"/>
     </row>
-    <row r="721" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A721" s="4"/>
       <c r="B721" s="5"/>
       <c r="C721" s="4"/>
@@ -12944,7 +12943,7 @@
       <c r="Q721" s="4"/>
       <c r="R721" s="4"/>
     </row>
-    <row r="722" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A722" s="4"/>
       <c r="B722" s="5"/>
       <c r="C722" s="4"/>
@@ -12960,7 +12959,7 @@
       <c r="Q722" s="4"/>
       <c r="R722" s="4"/>
     </row>
-    <row r="723" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A723" s="4"/>
       <c r="B723" s="5"/>
       <c r="C723" s="4"/>
@@ -12976,7 +12975,7 @@
       <c r="Q723" s="4"/>
       <c r="R723" s="4"/>
     </row>
-    <row r="724" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A724" s="4"/>
       <c r="B724" s="5"/>
       <c r="C724" s="4"/>
@@ -12992,7 +12991,7 @@
       <c r="Q724" s="4"/>
       <c r="R724" s="4"/>
     </row>
-    <row r="725" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A725" s="4"/>
       <c r="B725" s="5"/>
       <c r="C725" s="4"/>
@@ -13008,7 +13007,7 @@
       <c r="Q725" s="4"/>
       <c r="R725" s="4"/>
     </row>
-    <row r="726" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A726" s="4"/>
       <c r="B726" s="5"/>
       <c r="C726" s="4"/>
@@ -13024,7 +13023,7 @@
       <c r="Q726" s="4"/>
       <c r="R726" s="4"/>
     </row>
-    <row r="727" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A727" s="4"/>
       <c r="B727" s="5"/>
       <c r="C727" s="4"/>
@@ -13040,7 +13039,7 @@
       <c r="Q727" s="4"/>
       <c r="R727" s="4"/>
     </row>
-    <row r="728" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A728" s="4"/>
       <c r="B728" s="5"/>
       <c r="C728" s="4"/>
@@ -13056,7 +13055,7 @@
       <c r="Q728" s="4"/>
       <c r="R728" s="4"/>
     </row>
-    <row r="729" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A729" s="4"/>
       <c r="B729" s="5"/>
       <c r="C729" s="4"/>
@@ -13072,7 +13071,7 @@
       <c r="Q729" s="4"/>
       <c r="R729" s="4"/>
     </row>
-    <row r="730" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A730" s="4"/>
       <c r="B730" s="5"/>
       <c r="C730" s="4"/>
@@ -13088,7 +13087,7 @@
       <c r="Q730" s="4"/>
       <c r="R730" s="4"/>
     </row>
-    <row r="731" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A731" s="4"/>
       <c r="B731" s="5"/>
       <c r="C731" s="4"/>
@@ -13104,7 +13103,7 @@
       <c r="Q731" s="4"/>
       <c r="R731" s="4"/>
     </row>
-    <row r="732" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A732" s="4"/>
       <c r="B732" s="5"/>
       <c r="C732" s="4"/>
@@ -13120,7 +13119,7 @@
       <c r="Q732" s="4"/>
       <c r="R732" s="4"/>
     </row>
-    <row r="733" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A733" s="4"/>
       <c r="B733" s="5"/>
       <c r="C733" s="4"/>
@@ -13136,7 +13135,7 @@
       <c r="Q733" s="4"/>
       <c r="R733" s="4"/>
     </row>
-    <row r="734" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A734" s="4"/>
       <c r="B734" s="5"/>
       <c r="C734" s="4"/>
@@ -13152,7 +13151,7 @@
       <c r="Q734" s="4"/>
       <c r="R734" s="4"/>
     </row>
-    <row r="735" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A735" s="4"/>
       <c r="B735" s="5"/>
       <c r="C735" s="4"/>
@@ -13168,7 +13167,7 @@
       <c r="Q735" s="4"/>
       <c r="R735" s="4"/>
     </row>
-    <row r="736" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A736" s="4"/>
       <c r="B736" s="5"/>
       <c r="C736" s="4"/>
@@ -13184,7 +13183,7 @@
       <c r="Q736" s="4"/>
       <c r="R736" s="4"/>
     </row>
-    <row r="737" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A737" s="4"/>
       <c r="B737" s="5"/>
       <c r="C737" s="4"/>
@@ -13200,7 +13199,7 @@
       <c r="Q737" s="4"/>
       <c r="R737" s="4"/>
     </row>
-    <row r="738" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A738" s="4"/>
       <c r="B738" s="5"/>
       <c r="C738" s="4"/>
@@ -13216,7 +13215,7 @@
       <c r="Q738" s="4"/>
       <c r="R738" s="4"/>
     </row>
-    <row r="739" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A739" s="4"/>
       <c r="B739" s="5"/>
       <c r="C739" s="4"/>
@@ -13232,7 +13231,7 @@
       <c r="Q739" s="4"/>
       <c r="R739" s="4"/>
     </row>
-    <row r="740" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A740" s="4"/>
       <c r="B740" s="5"/>
       <c r="C740" s="4"/>
@@ -13248,7 +13247,7 @@
       <c r="Q740" s="4"/>
       <c r="R740" s="4"/>
     </row>
-    <row r="741" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A741" s="4"/>
       <c r="B741" s="5"/>
       <c r="C741" s="4"/>
@@ -13264,7 +13263,7 @@
       <c r="Q741" s="4"/>
       <c r="R741" s="4"/>
     </row>
-    <row r="742" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A742" s="4"/>
       <c r="B742" s="5"/>
       <c r="C742" s="4"/>
@@ -13280,7 +13279,7 @@
       <c r="Q742" s="4"/>
       <c r="R742" s="4"/>
     </row>
-    <row r="743" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A743" s="4"/>
       <c r="B743" s="5"/>
       <c r="C743" s="4"/>
@@ -13296,7 +13295,7 @@
       <c r="Q743" s="4"/>
       <c r="R743" s="4"/>
     </row>
-    <row r="744" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A744" s="4"/>
       <c r="B744" s="5"/>
       <c r="C744" s="4"/>
@@ -13312,7 +13311,7 @@
       <c r="Q744" s="4"/>
       <c r="R744" s="4"/>
     </row>
-    <row r="745" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A745" s="4"/>
       <c r="B745" s="5"/>
       <c r="C745" s="4"/>
@@ -13328,7 +13327,7 @@
       <c r="Q745" s="4"/>
       <c r="R745" s="4"/>
     </row>
-    <row r="746" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A746" s="4"/>
       <c r="B746" s="5"/>
       <c r="C746" s="4"/>
@@ -13344,7 +13343,7 @@
       <c r="Q746" s="4"/>
       <c r="R746" s="4"/>
     </row>
-    <row r="747" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A747" s="4"/>
       <c r="B747" s="5"/>
       <c r="C747" s="4"/>
@@ -13360,7 +13359,7 @@
       <c r="Q747" s="4"/>
       <c r="R747" s="4"/>
     </row>
-    <row r="748" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A748" s="4"/>
       <c r="B748" s="5"/>
       <c r="C748" s="4"/>
@@ -13376,7 +13375,7 @@
       <c r="Q748" s="4"/>
       <c r="R748" s="4"/>
     </row>
-    <row r="749" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A749" s="4"/>
       <c r="B749" s="5"/>
       <c r="C749" s="4"/>
@@ -13392,7 +13391,7 @@
       <c r="Q749" s="4"/>
       <c r="R749" s="4"/>
     </row>
-    <row r="750" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A750" s="4"/>
       <c r="B750" s="5"/>
       <c r="C750" s="4"/>
@@ -13408,7 +13407,7 @@
       <c r="Q750" s="4"/>
       <c r="R750" s="4"/>
     </row>
-    <row r="751" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A751" s="4"/>
       <c r="B751" s="5"/>
       <c r="C751" s="4"/>
@@ -13424,7 +13423,7 @@
       <c r="Q751" s="4"/>
       <c r="R751" s="4"/>
     </row>
-    <row r="752" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A752" s="4"/>
       <c r="B752" s="5"/>
       <c r="C752" s="4"/>
@@ -13440,7 +13439,7 @@
       <c r="Q752" s="4"/>
       <c r="R752" s="4"/>
     </row>
-    <row r="753" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A753" s="4"/>
       <c r="B753" s="5"/>
       <c r="C753" s="4"/>
@@ -13456,7 +13455,7 @@
       <c r="Q753" s="4"/>
       <c r="R753" s="4"/>
     </row>
-    <row r="754" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A754" s="4"/>
       <c r="B754" s="5"/>
       <c r="C754" s="4"/>
@@ -13472,7 +13471,7 @@
       <c r="Q754" s="4"/>
       <c r="R754" s="4"/>
     </row>
-    <row r="755" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A755" s="4"/>
       <c r="B755" s="5"/>
       <c r="C755" s="4"/>
@@ -13488,7 +13487,7 @@
       <c r="Q755" s="4"/>
       <c r="R755" s="4"/>
     </row>
-    <row r="756" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A756" s="4"/>
       <c r="B756" s="5"/>
       <c r="C756" s="4"/>
@@ -13504,7 +13503,7 @@
       <c r="Q756" s="4"/>
       <c r="R756" s="4"/>
     </row>
-    <row r="757" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A757" s="4"/>
       <c r="B757" s="5"/>
       <c r="C757" s="4"/>
@@ -13520,7 +13519,7 @@
       <c r="Q757" s="4"/>
       <c r="R757" s="4"/>
     </row>
-    <row r="758" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A758" s="4"/>
       <c r="B758" s="5"/>
       <c r="C758" s="4"/>
@@ -13536,7 +13535,7 @@
       <c r="Q758" s="4"/>
       <c r="R758" s="4"/>
     </row>
-    <row r="759" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A759" s="4"/>
       <c r="B759" s="5"/>
       <c r="C759" s="4"/>
@@ -13552,7 +13551,7 @@
       <c r="Q759" s="4"/>
       <c r="R759" s="4"/>
     </row>
-    <row r="760" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A760" s="4"/>
       <c r="B760" s="5"/>
       <c r="C760" s="4"/>
@@ -13568,7 +13567,7 @@
       <c r="Q760" s="4"/>
       <c r="R760" s="4"/>
     </row>
-    <row r="761" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A761" s="4"/>
       <c r="B761" s="5"/>
       <c r="C761" s="4"/>
@@ -13584,7 +13583,7 @@
       <c r="Q761" s="4"/>
       <c r="R761" s="4"/>
     </row>
-    <row r="762" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A762" s="4"/>
       <c r="B762" s="5"/>
       <c r="C762" s="4"/>
@@ -13600,7 +13599,7 @@
       <c r="Q762" s="4"/>
       <c r="R762" s="4"/>
     </row>
-    <row r="763" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A763" s="4"/>
       <c r="B763" s="5"/>
       <c r="C763" s="4"/>
@@ -13616,7 +13615,7 @@
       <c r="Q763" s="4"/>
       <c r="R763" s="4"/>
     </row>
-    <row r="764" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A764" s="4"/>
       <c r="B764" s="5"/>
       <c r="C764" s="4"/>
@@ -13632,7 +13631,7 @@
       <c r="Q764" s="4"/>
       <c r="R764" s="4"/>
     </row>
-    <row r="765" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A765" s="4"/>
       <c r="B765" s="5"/>
       <c r="C765" s="4"/>
@@ -13648,7 +13647,7 @@
       <c r="Q765" s="4"/>
       <c r="R765" s="4"/>
     </row>
-    <row r="766" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A766" s="4"/>
       <c r="B766" s="5"/>
       <c r="C766" s="4"/>
@@ -13664,7 +13663,7 @@
       <c r="Q766" s="4"/>
       <c r="R766" s="4"/>
     </row>
-    <row r="767" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A767" s="4"/>
       <c r="B767" s="5"/>
       <c r="C767" s="4"/>
@@ -13680,7 +13679,7 @@
       <c r="Q767" s="4"/>
       <c r="R767" s="4"/>
     </row>
-    <row r="768" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A768" s="4"/>
       <c r="B768" s="5"/>
       <c r="C768" s="4"/>
@@ -13696,7 +13695,7 @@
       <c r="Q768" s="4"/>
       <c r="R768" s="4"/>
     </row>
-    <row r="769" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A769" s="4"/>
       <c r="B769" s="5"/>
       <c r="C769" s="4"/>
@@ -13712,7 +13711,7 @@
       <c r="Q769" s="4"/>
       <c r="R769" s="4"/>
     </row>
-    <row r="770" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A770" s="4"/>
       <c r="B770" s="5"/>
       <c r="C770" s="4"/>
@@ -13728,7 +13727,7 @@
       <c r="Q770" s="4"/>
       <c r="R770" s="4"/>
     </row>
-    <row r="771" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A771" s="4"/>
       <c r="B771" s="5"/>
       <c r="C771" s="4"/>
@@ -13744,7 +13743,7 @@
       <c r="Q771" s="4"/>
       <c r="R771" s="4"/>
     </row>
-    <row r="772" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A772" s="4"/>
       <c r="B772" s="5"/>
       <c r="C772" s="4"/>
@@ -13760,7 +13759,7 @@
       <c r="Q772" s="4"/>
       <c r="R772" s="4"/>
     </row>
-    <row r="773" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A773" s="4"/>
       <c r="B773" s="5"/>
       <c r="C773" s="4"/>
@@ -13776,7 +13775,7 @@
       <c r="Q773" s="4"/>
       <c r="R773" s="4"/>
     </row>
-    <row r="774" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A774" s="4"/>
       <c r="B774" s="5"/>
       <c r="C774" s="4"/>
@@ -13792,7 +13791,7 @@
       <c r="Q774" s="4"/>
       <c r="R774" s="4"/>
     </row>
-    <row r="775" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A775" s="4"/>
       <c r="B775" s="5"/>
       <c r="C775" s="4"/>
@@ -13808,7 +13807,7 @@
       <c r="Q775" s="4"/>
       <c r="R775" s="4"/>
     </row>
-    <row r="776" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A776" s="4"/>
       <c r="B776" s="5"/>
       <c r="C776" s="4"/>
@@ -13824,7 +13823,7 @@
       <c r="Q776" s="4"/>
       <c r="R776" s="4"/>
     </row>
-    <row r="777" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A777" s="4"/>
       <c r="B777" s="5"/>
       <c r="C777" s="4"/>
@@ -13840,7 +13839,7 @@
       <c r="Q777" s="4"/>
       <c r="R777" s="4"/>
     </row>
-    <row r="778" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A778" s="4"/>
       <c r="B778" s="5"/>
       <c r="C778" s="4"/>
@@ -13856,7 +13855,7 @@
       <c r="Q778" s="4"/>
       <c r="R778" s="4"/>
     </row>
-    <row r="779" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A779" s="4"/>
       <c r="B779" s="5"/>
       <c r="C779" s="4"/>
@@ -13872,7 +13871,7 @@
       <c r="Q779" s="4"/>
       <c r="R779" s="4"/>
     </row>
-    <row r="780" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A780" s="4"/>
       <c r="B780" s="5"/>
       <c r="C780" s="4"/>
@@ -13888,7 +13887,7 @@
       <c r="Q780" s="4"/>
       <c r="R780" s="4"/>
     </row>
-    <row r="781" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A781" s="4"/>
       <c r="B781" s="5"/>
       <c r="C781" s="4"/>
@@ -13904,7 +13903,7 @@
       <c r="Q781" s="4"/>
       <c r="R781" s="4"/>
     </row>
-    <row r="782" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A782" s="4"/>
       <c r="B782" s="5"/>
       <c r="C782" s="4"/>
@@ -13920,7 +13919,7 @@
       <c r="Q782" s="4"/>
       <c r="R782" s="4"/>
     </row>
-    <row r="783" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A783" s="4"/>
       <c r="B783" s="5"/>
       <c r="C783" s="4"/>
@@ -13936,7 +13935,7 @@
       <c r="Q783" s="4"/>
       <c r="R783" s="4"/>
     </row>
-    <row r="784" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A784" s="4"/>
       <c r="B784" s="5"/>
       <c r="C784" s="4"/>
@@ -13952,7 +13951,7 @@
       <c r="Q784" s="4"/>
       <c r="R784" s="4"/>
     </row>
-    <row r="785" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A785" s="4"/>
       <c r="B785" s="5"/>
       <c r="C785" s="4"/>
@@ -13968,7 +13967,7 @@
       <c r="Q785" s="4"/>
       <c r="R785" s="4"/>
     </row>
-    <row r="786" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A786" s="4"/>
       <c r="B786" s="5"/>
       <c r="C786" s="4"/>
@@ -13984,7 +13983,7 @@
       <c r="Q786" s="4"/>
       <c r="R786" s="4"/>
     </row>
-    <row r="787" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A787" s="4"/>
       <c r="B787" s="5"/>
       <c r="C787" s="4"/>
@@ -14000,7 +13999,7 @@
       <c r="Q787" s="4"/>
       <c r="R787" s="4"/>
     </row>
-    <row r="788" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A788" s="4"/>
       <c r="B788" s="5"/>
       <c r="C788" s="4"/>
@@ -14016,7 +14015,7 @@
       <c r="Q788" s="4"/>
       <c r="R788" s="4"/>
     </row>
-    <row r="789" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A789" s="4"/>
       <c r="B789" s="5"/>
       <c r="C789" s="4"/>
@@ -14032,7 +14031,7 @@
       <c r="Q789" s="4"/>
       <c r="R789" s="4"/>
     </row>
-    <row r="790" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A790" s="4"/>
       <c r="B790" s="5"/>
       <c r="C790" s="4"/>
@@ -14048,7 +14047,7 @@
       <c r="Q790" s="4"/>
       <c r="R790" s="4"/>
     </row>
-    <row r="791" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A791" s="4"/>
       <c r="B791" s="5"/>
       <c r="C791" s="4"/>
@@ -14064,7 +14063,7 @@
       <c r="Q791" s="4"/>
       <c r="R791" s="4"/>
     </row>
-    <row r="792" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A792" s="4"/>
       <c r="B792" s="5"/>
       <c r="C792" s="4"/>
@@ -14080,7 +14079,7 @@
       <c r="Q792" s="4"/>
       <c r="R792" s="4"/>
     </row>
-    <row r="793" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A793" s="4"/>
       <c r="B793" s="5"/>
       <c r="C793" s="4"/>
@@ -14096,7 +14095,7 @@
       <c r="Q793" s="4"/>
       <c r="R793" s="4"/>
     </row>
-    <row r="794" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A794" s="4"/>
       <c r="B794" s="5"/>
       <c r="C794" s="4"/>
@@ -14112,7 +14111,7 @@
       <c r="Q794" s="4"/>
       <c r="R794" s="4"/>
     </row>
-    <row r="795" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A795" s="4"/>
       <c r="B795" s="5"/>
       <c r="C795" s="4"/>
@@ -14128,7 +14127,7 @@
       <c r="Q795" s="4"/>
       <c r="R795" s="4"/>
     </row>
-    <row r="796" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A796" s="4"/>
       <c r="B796" s="5"/>
       <c r="C796" s="4"/>
@@ -14144,7 +14143,7 @@
       <c r="Q796" s="4"/>
       <c r="R796" s="4"/>
     </row>
-    <row r="797" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A797" s="4"/>
       <c r="B797" s="5"/>
       <c r="C797" s="4"/>
@@ -14160,7 +14159,7 @@
       <c r="Q797" s="4"/>
       <c r="R797" s="4"/>
     </row>
-    <row r="798" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A798" s="4"/>
       <c r="B798" s="5"/>
       <c r="C798" s="4"/>
@@ -14176,7 +14175,7 @@
       <c r="Q798" s="4"/>
       <c r="R798" s="4"/>
     </row>
-    <row r="799" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A799" s="4"/>
       <c r="B799" s="5"/>
       <c r="C799" s="4"/>
@@ -14192,7 +14191,7 @@
       <c r="Q799" s="4"/>
       <c r="R799" s="4"/>
     </row>
-    <row r="800" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A800" s="4"/>
       <c r="B800" s="5"/>
       <c r="C800" s="4"/>
@@ -14208,7 +14207,7 @@
       <c r="Q800" s="4"/>
       <c r="R800" s="4"/>
     </row>
-    <row r="801" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A801" s="4"/>
       <c r="B801" s="5"/>
       <c r="C801" s="4"/>
@@ -14224,7 +14223,7 @@
       <c r="Q801" s="4"/>
       <c r="R801" s="4"/>
     </row>
-    <row r="802" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A802" s="4"/>
       <c r="B802" s="5"/>
       <c r="C802" s="4"/>
@@ -14240,7 +14239,7 @@
       <c r="Q802" s="4"/>
       <c r="R802" s="4"/>
     </row>
-    <row r="803" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A803" s="4"/>
       <c r="B803" s="5"/>
       <c r="C803" s="4"/>
@@ -14256,7 +14255,7 @@
       <c r="Q803" s="4"/>
       <c r="R803" s="4"/>
     </row>
-    <row r="804" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A804" s="4"/>
       <c r="B804" s="5"/>
       <c r="C804" s="4"/>
@@ -14272,7 +14271,7 @@
       <c r="Q804" s="4"/>
       <c r="R804" s="4"/>
     </row>
-    <row r="805" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A805" s="4"/>
       <c r="B805" s="5"/>
       <c r="C805" s="4"/>
@@ -14288,7 +14287,7 @@
       <c r="Q805" s="4"/>
       <c r="R805" s="4"/>
     </row>
-    <row r="806" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A806" s="4"/>
       <c r="B806" s="5"/>
       <c r="C806" s="4"/>
@@ -14304,7 +14303,7 @@
       <c r="Q806" s="4"/>
       <c r="R806" s="4"/>
     </row>
-    <row r="807" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A807" s="4"/>
       <c r="B807" s="5"/>
       <c r="C807" s="4"/>
@@ -14320,7 +14319,7 @@
       <c r="Q807" s="4"/>
       <c r="R807" s="4"/>
     </row>
-    <row r="808" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A808" s="4"/>
       <c r="B808" s="5"/>
       <c r="C808" s="4"/>
@@ -14336,7 +14335,7 @@
       <c r="Q808" s="4"/>
       <c r="R808" s="4"/>
     </row>
-    <row r="809" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A809" s="4"/>
       <c r="B809" s="5"/>
       <c r="C809" s="4"/>
@@ -14352,7 +14351,7 @@
       <c r="Q809" s="4"/>
       <c r="R809" s="4"/>
     </row>
-    <row r="810" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A810" s="4"/>
       <c r="B810" s="5"/>
       <c r="C810" s="4"/>
@@ -14368,7 +14367,7 @@
       <c r="Q810" s="4"/>
       <c r="R810" s="4"/>
     </row>
-    <row r="811" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A811" s="4"/>
       <c r="B811" s="5"/>
       <c r="C811" s="4"/>
@@ -14384,7 +14383,7 @@
       <c r="Q811" s="4"/>
       <c r="R811" s="4"/>
     </row>
-    <row r="812" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A812" s="4"/>
       <c r="B812" s="5"/>
       <c r="C812" s="4"/>
@@ -14400,7 +14399,7 @@
       <c r="Q812" s="4"/>
       <c r="R812" s="4"/>
     </row>
-    <row r="813" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A813" s="4"/>
       <c r="B813" s="5"/>
       <c r="C813" s="4"/>
@@ -14416,7 +14415,7 @@
       <c r="Q813" s="4"/>
       <c r="R813" s="4"/>
     </row>
-    <row r="814" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A814" s="4"/>
       <c r="B814" s="5"/>
       <c r="C814" s="4"/>
@@ -14432,7 +14431,7 @@
       <c r="Q814" s="4"/>
       <c r="R814" s="4"/>
     </row>
-    <row r="815" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A815" s="4"/>
       <c r="B815" s="5"/>
       <c r="C815" s="4"/>
@@ -14448,7 +14447,7 @@
       <c r="Q815" s="4"/>
       <c r="R815" s="4"/>
     </row>
-    <row r="816" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A816" s="4"/>
       <c r="B816" s="5"/>
       <c r="C816" s="4"/>
@@ -14464,7 +14463,7 @@
       <c r="Q816" s="4"/>
       <c r="R816" s="4"/>
     </row>
-    <row r="817" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A817" s="4"/>
       <c r="B817" s="5"/>
       <c r="C817" s="4"/>
@@ -14480,7 +14479,7 @@
       <c r="Q817" s="4"/>
       <c r="R817" s="4"/>
     </row>
-    <row r="818" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A818" s="4"/>
       <c r="B818" s="5"/>
       <c r="C818" s="4"/>
@@ -14496,7 +14495,7 @@
       <c r="Q818" s="4"/>
       <c r="R818" s="4"/>
     </row>
-    <row r="819" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A819" s="4"/>
       <c r="B819" s="5"/>
       <c r="C819" s="4"/>
@@ -14512,7 +14511,7 @@
       <c r="Q819" s="4"/>
       <c r="R819" s="4"/>
     </row>
-    <row r="820" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A820" s="4"/>
       <c r="B820" s="5"/>
       <c r="C820" s="4"/>
@@ -14528,7 +14527,7 @@
       <c r="Q820" s="4"/>
       <c r="R820" s="4"/>
     </row>
-    <row r="821" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A821" s="4"/>
       <c r="B821" s="5"/>
       <c r="C821" s="4"/>
@@ -14544,7 +14543,7 @@
       <c r="Q821" s="4"/>
       <c r="R821" s="4"/>
     </row>
-    <row r="822" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A822" s="4"/>
       <c r="B822" s="5"/>
       <c r="C822" s="4"/>
@@ -14560,7 +14559,7 @@
       <c r="Q822" s="4"/>
       <c r="R822" s="4"/>
     </row>
-    <row r="823" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A823" s="4"/>
       <c r="B823" s="5"/>
       <c r="C823" s="4"/>
@@ -14576,7 +14575,7 @@
       <c r="Q823" s="4"/>
       <c r="R823" s="4"/>
     </row>
-    <row r="824" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A824" s="4"/>
       <c r="B824" s="5"/>
       <c r="C824" s="4"/>
@@ -14592,7 +14591,7 @@
       <c r="Q824" s="4"/>
       <c r="R824" s="4"/>
     </row>
-    <row r="825" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A825" s="4"/>
       <c r="B825" s="5"/>
       <c r="C825" s="4"/>
@@ -14601,7 +14600,7 @@
       <c r="F825" s="4"/>
       <c r="G825" s="4"/>
     </row>
-    <row r="826" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A826" s="4"/>
       <c r="B826" s="5"/>
       <c r="C826" s="4"/>
@@ -14610,7 +14609,7 @@
       <c r="F826" s="4"/>
       <c r="G826" s="4"/>
     </row>
-    <row r="827" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A827" s="4"/>
       <c r="B827" s="5"/>
       <c r="C827" s="4"/>
@@ -14619,7 +14618,7 @@
       <c r="F827" s="4"/>
       <c r="G827" s="4"/>
     </row>
-    <row r="828" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A828" s="4"/>
       <c r="B828" s="5"/>
       <c r="C828" s="4"/>
@@ -14628,7 +14627,7 @@
       <c r="F828" s="4"/>
       <c r="G828" s="4"/>
     </row>
-    <row r="829" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A829" s="4"/>
       <c r="B829" s="5"/>
       <c r="C829" s="4"/>
@@ -14637,7 +14636,7 @@
       <c r="F829" s="4"/>
       <c r="G829" s="4"/>
     </row>
-    <row r="830" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A830" s="4">
         <v>20</v>
       </c>
@@ -14655,13 +14654,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A830" xr:uid="{668B5660-EE48-1D43-A41B-2C53A281025C}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Avg delay (s)"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:A830" xr:uid="{668B5660-EE48-1D43-A41B-2C53A281025C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/routing_project2/Simulations.xlsx
+++ b/routing_project2/Simulations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jokubas/Desktop/ADHSN/ahsn_groupjj/routing_project2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffrey/Documents/TUDelft/Assignments/MY2Q1/AHSN/ahsn_groupjj/routing_project2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C997D8E-EB1B-E848-97A9-3B607E19C716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B352199-F867-F449-A3DA-DB93E41D3A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3100" yWindow="1680" windowWidth="27640" windowHeight="16940" xr2:uid="{5B0FB570-53D5-CC45-9C8C-CFBFA881E8D1}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="208">
   <si>
     <t>Movement</t>
   </si>
@@ -149,18 +149,12 @@
     <t xml:space="preserve"> 2.2</t>
   </si>
   <si>
-    <t>Neighbour got out of range. 7</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0.14285714285714285</t>
   </si>
   <si>
     <t xml:space="preserve"> 3.1</t>
   </si>
   <si>
-    <t>Neighbour got out of range. 20</t>
-  </si>
-  <si>
     <t>Neighbour got out of range. 30</t>
   </si>
   <si>
@@ -173,9 +167,6 @@
     <t xml:space="preserve"> 3.7</t>
   </si>
   <si>
-    <t>Neighbour got out of range. 6</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0.3</t>
   </si>
   <si>
@@ -188,12 +179,6 @@
     <t xml:space="preserve"> 2.0</t>
   </si>
   <si>
-    <t>Neighbour got out of range. 33</t>
-  </si>
-  <si>
-    <t>Neighbour got out of range. 12</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0.5</t>
   </si>
   <si>
@@ -218,18 +203,12 @@
     <t xml:space="preserve"> 90.0</t>
   </si>
   <si>
-    <t>Neighbour got out of range. 5</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0.027683019638061523</t>
   </si>
   <si>
     <t xml:space="preserve"> 0.0023069183031717935</t>
   </si>
   <si>
-    <t>Neighbour got out of range. 13</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0.1111111111111111</t>
   </si>
   <si>
@@ -245,9 +224,6 @@
     <t xml:space="preserve"> 3.3</t>
   </si>
   <si>
-    <t>Neighbour got out of range. 14</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0.05263157894736842</t>
   </si>
   <si>
@@ -269,9 +245,6 @@
     <t xml:space="preserve"> 0.028360962867736816</t>
   </si>
   <si>
-    <t>Neighbour got out of range. 17</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0.125</t>
   </si>
   <si>
@@ -305,9 +278,6 @@
     <t xml:space="preserve"> 0.06253194808959961</t>
   </si>
   <si>
-    <t>Neighbour got out of range. 16</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0.4666666666666667</t>
   </si>
   <si>
@@ -323,9 +293,6 @@
     <t xml:space="preserve"> 5.7</t>
   </si>
   <si>
-    <t>Neighbour got out of range. 10</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0.18181818181818182</t>
   </si>
   <si>
@@ -383,9 +350,6 @@
     <t xml:space="preserve"> 0.06056678295135498</t>
   </si>
   <si>
-    <t>Neighbour got out of range. 11</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0.55</t>
   </si>
   <si>
@@ -434,9 +398,6 @@
     <t xml:space="preserve"> 0.046655586787632534</t>
   </si>
   <si>
-    <t>Neighbour got out of range. 36</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0.5483870967741935</t>
   </si>
   <si>
@@ -449,9 +410,6 @@
     <t xml:space="preserve"> 0.039666993277413506</t>
   </si>
   <si>
-    <t>Neighbour got out of range. 21</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0.52</t>
   </si>
   <si>
@@ -527,9 +485,6 @@
     <t xml:space="preserve"> 5.3</t>
   </si>
   <si>
-    <t>Neighbour got out of range. 23</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0.32</t>
   </si>
   <si>
@@ -620,9 +575,6 @@
     <t xml:space="preserve"> 5.25</t>
   </si>
   <si>
-    <t>Neighbour got out of range. 15</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0.15547490119934082</t>
   </si>
   <si>
@@ -632,9 +584,6 @@
     <t xml:space="preserve"> 0.05182496706644694</t>
   </si>
   <si>
-    <t>Neighbour got out of range. 22</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0.5714285714285714</t>
   </si>
   <si>
@@ -701,9 +650,6 @@
     <t xml:space="preserve"> 7.5</t>
   </si>
   <si>
-    <t>Neighbour got out of range. 19</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0.11202645301818848</t>
   </si>
   <si>
@@ -711,6 +657,12 @@
   </si>
   <si>
     <t xml:space="preserve"> 0.03734215100606283</t>
+  </si>
+  <si>
+    <t>Neighbour got out of range.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neighbour got out of range. </t>
   </si>
 </sst>
 </file>
@@ -777,7 +729,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -793,7 +745,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1091,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668B5660-EE48-1D43-A41B-2C53A281025C}">
   <dimension ref="A1:R830"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="F166" sqref="F166"/>
+    <sheetView tabSelected="1" topLeftCell="A623" workbookViewId="0">
+      <selection activeCell="M621" sqref="M621"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1232,12 +1184,17 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>206</v>
+      </c>
+      <c r="B9" s="2">
+        <v>6</v>
       </c>
       <c r="L9" t="s">
-        <v>36</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="M9" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
@@ -1352,13 +1309,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -1372,7 +1329,7 @@
         <v>19</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -1380,13 +1337,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -1394,13 +1351,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -1408,13 +1365,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L23" t="s">
         <v>22</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -1525,7 +1482,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>29</v>
@@ -1553,13 +1510,13 @@
         <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L34" t="s">
         <v>31</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
@@ -1686,12 +1643,17 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>206</v>
+      </c>
+      <c r="B45" s="2">
+        <v>5</v>
       </c>
       <c r="L45" t="s">
-        <v>36</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="M45" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
@@ -1806,13 +1768,13 @@
         <v>17</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>17</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
@@ -1826,7 +1788,7 @@
         <v>19</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
@@ -1834,13 +1796,13 @@
         <v>20</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
@@ -1848,13 +1810,13 @@
         <v>21</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
@@ -1862,13 +1824,13 @@
         <v>22</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L59" t="s">
         <v>22</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
@@ -2013,7 +1975,7 @@
         <v>31</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.2">
@@ -2140,12 +2102,17 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>62</v>
+        <v>206</v>
+      </c>
+      <c r="B81" s="2">
+        <v>13</v>
       </c>
       <c r="L81" t="s">
-        <v>88</v>
-      </c>
-      <c r="M81" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="M81" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M82" s="2"/>
@@ -2256,13 +2223,13 @@
         <v>17</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="L91" t="s">
         <v>17</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
@@ -2284,13 +2251,13 @@
         <v>20</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L93" t="s">
         <v>20</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
@@ -2298,13 +2265,13 @@
         <v>21</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="L94" t="s">
         <v>21</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
@@ -2312,13 +2279,13 @@
         <v>22</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="L95" t="s">
         <v>22</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
@@ -2455,13 +2422,13 @@
         <v>31</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L106" t="s">
         <v>31</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.2">
@@ -2586,12 +2553,17 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>68</v>
+        <v>206</v>
+      </c>
+      <c r="B117" s="2">
+        <v>14</v>
       </c>
       <c r="L117" t="s">
-        <v>114</v>
-      </c>
-      <c r="M117" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="M117" s="2">
+        <v>11</v>
+      </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M118" s="2"/>
@@ -2702,13 +2674,13 @@
         <v>17</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="L127" t="s">
         <v>17</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
@@ -2730,13 +2702,13 @@
         <v>20</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="L129" t="s">
         <v>20</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
@@ -2744,13 +2716,13 @@
         <v>21</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="L130" t="s">
         <v>21</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
@@ -2758,13 +2730,13 @@
         <v>22</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="L131" t="s">
         <v>22</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
@@ -2901,13 +2873,13 @@
         <v>31</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L142" t="s">
         <v>31</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.2">
@@ -3032,12 +3004,17 @@
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>39</v>
+        <v>207</v>
+      </c>
+      <c r="B153" s="2">
+        <v>20</v>
       </c>
       <c r="L153" t="s">
-        <v>162</v>
-      </c>
-      <c r="M153" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="M153" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M154" s="2"/>
@@ -3148,13 +3125,13 @@
         <v>17</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="L163" t="s">
         <v>17</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.2">
@@ -3176,13 +3153,13 @@
         <v>20</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="L165" t="s">
         <v>20</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.2">
@@ -3190,13 +3167,13 @@
         <v>21</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="L166" t="s">
         <v>21</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.2">
@@ -3204,13 +3181,13 @@
         <v>22</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L167" t="s">
         <v>22</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.2">
@@ -3347,13 +3324,13 @@
         <v>31</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L178" t="s">
         <v>31</v>
       </c>
       <c r="M178" s="2" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="179" spans="1:18" x14ac:dyDescent="0.2">
@@ -3478,12 +3455,17 @@
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>76</v>
+        <v>206</v>
+      </c>
+      <c r="B189" s="2">
+        <v>17</v>
       </c>
       <c r="L189" t="s">
-        <v>162</v>
-      </c>
-      <c r="M189" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="M189" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M190" s="2"/>
@@ -3594,13 +3576,13 @@
         <v>17</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="L199" t="s">
         <v>17</v>
       </c>
       <c r="M199" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.2">
@@ -3622,13 +3604,13 @@
         <v>20</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L201" t="s">
         <v>20</v>
       </c>
       <c r="M201" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.2">
@@ -3636,13 +3618,13 @@
         <v>21</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="L202" t="s">
         <v>21</v>
       </c>
       <c r="M202" s="2" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.2">
@@ -3650,13 +3632,13 @@
         <v>22</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="L203" t="s">
         <v>22</v>
       </c>
       <c r="M203" s="2" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.2">
@@ -3793,13 +3775,13 @@
         <v>31</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L214" t="s">
         <v>31</v>
       </c>
       <c r="M214" s="2" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.2">
@@ -3924,12 +3906,17 @@
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>44</v>
+        <v>206</v>
+      </c>
+      <c r="B225" s="2">
+        <v>6</v>
       </c>
       <c r="L225" t="s">
-        <v>114</v>
-      </c>
-      <c r="M225" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="M225" s="2">
+        <v>11</v>
+      </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M226" s="2"/>
@@ -4040,13 +4027,13 @@
         <v>17</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L235" t="s">
         <v>17</v>
       </c>
       <c r="M235" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.2">
@@ -4054,13 +4041,13 @@
         <v>19</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L236" t="s">
         <v>19</v>
       </c>
       <c r="M236" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.2">
@@ -4068,13 +4055,13 @@
         <v>20</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L237" t="s">
         <v>20</v>
       </c>
       <c r="M237" s="2" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.2">
@@ -4082,13 +4069,13 @@
         <v>21</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="L238" t="s">
         <v>21</v>
       </c>
       <c r="M238" s="2" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.2">
@@ -4096,13 +4083,13 @@
         <v>22</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L239" t="s">
         <v>22</v>
       </c>
       <c r="M239" s="2" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.2">
@@ -4239,13 +4226,13 @@
         <v>31</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L250" t="s">
         <v>31</v>
       </c>
       <c r="M250" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="251" spans="1:18" x14ac:dyDescent="0.2">
@@ -4370,12 +4357,17 @@
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>44</v>
+        <v>206</v>
+      </c>
+      <c r="B261" s="2">
+        <v>6</v>
       </c>
       <c r="L261" t="s">
-        <v>94</v>
-      </c>
-      <c r="M261" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="M261" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M262" s="2"/>
@@ -4486,13 +4478,13 @@
         <v>17</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L271" t="s">
         <v>17</v>
       </c>
       <c r="M271" s="2" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.2">
@@ -4500,7 +4492,7 @@
         <v>19</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L272" t="s">
         <v>19</v>
@@ -4514,13 +4506,13 @@
         <v>20</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="L273" t="s">
         <v>20</v>
       </c>
       <c r="M273" s="2" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.2">
@@ -4528,13 +4520,13 @@
         <v>21</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="L274" t="s">
         <v>21</v>
       </c>
       <c r="M274" s="2" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.2">
@@ -4542,13 +4534,13 @@
         <v>22</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="L275" t="s">
         <v>22</v>
       </c>
       <c r="M275" s="2" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.2">
@@ -4685,13 +4677,13 @@
         <v>31</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L286" t="s">
         <v>31</v>
       </c>
       <c r="M286" s="2" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.2">
@@ -4816,12 +4808,17 @@
     </row>
     <row r="297" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>88</v>
+        <v>206</v>
+      </c>
+      <c r="B297" s="2">
+        <v>16</v>
       </c>
       <c r="L297" t="s">
-        <v>39</v>
-      </c>
-      <c r="M297" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="M297" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="298" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M298" s="2"/>
@@ -4932,13 +4929,13 @@
         <v>17</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="L307" t="s">
         <v>17</v>
       </c>
       <c r="M307" s="2" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.2">
@@ -4960,13 +4957,13 @@
         <v>20</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="L309" t="s">
         <v>20</v>
       </c>
       <c r="M309" s="2" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.2">
@@ -4974,13 +4971,13 @@
         <v>21</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L310" t="s">
         <v>21</v>
       </c>
       <c r="M310" s="2" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.2">
@@ -4988,13 +4985,13 @@
         <v>22</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="L311" t="s">
         <v>22</v>
       </c>
       <c r="M311" s="2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.2">
@@ -5131,13 +5128,13 @@
         <v>31</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="L322" t="s">
         <v>31</v>
       </c>
       <c r="M322" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="323" spans="1:18" x14ac:dyDescent="0.2">
@@ -5262,12 +5259,17 @@
     </row>
     <row r="333" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>94</v>
+        <v>206</v>
+      </c>
+      <c r="B333" s="2">
+        <v>10</v>
       </c>
       <c r="L333" t="s">
-        <v>50</v>
-      </c>
-      <c r="M333" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="M333" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="334" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M334" s="2"/>
@@ -5378,7 +5380,7 @@
         <v>17</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="L343" t="s">
         <v>17</v>
@@ -5398,7 +5400,7 @@
         <v>19</v>
       </c>
       <c r="M344" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.2">
@@ -5406,13 +5408,13 @@
         <v>20</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="L345" t="s">
         <v>20</v>
       </c>
       <c r="M345" s="2" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.2">
@@ -5420,13 +5422,13 @@
         <v>21</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="L346" t="s">
         <v>21</v>
       </c>
       <c r="M346" s="2" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.2">
@@ -5434,13 +5436,13 @@
         <v>22</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="L347" t="s">
         <v>22</v>
       </c>
       <c r="M347" s="2" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.2">
@@ -5577,13 +5579,13 @@
         <v>31</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="L358" t="s">
         <v>31</v>
       </c>
       <c r="M358" s="2" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="359" spans="1:18" x14ac:dyDescent="0.2">
@@ -5708,12 +5710,17 @@
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>49</v>
+        <v>206</v>
+      </c>
+      <c r="B369" s="2">
+        <v>33</v>
       </c>
       <c r="L369" t="s">
-        <v>76</v>
-      </c>
-      <c r="M369" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="M369" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="370" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M370" s="2"/>
@@ -5824,13 +5831,13 @@
         <v>17</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="L379" t="s">
         <v>17</v>
       </c>
       <c r="M379" s="2" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.2">
@@ -5844,7 +5851,7 @@
         <v>19</v>
       </c>
       <c r="M380" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.2">
@@ -5852,13 +5859,13 @@
         <v>20</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="L381" t="s">
         <v>20</v>
       </c>
       <c r="M381" s="2" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.2">
@@ -5866,13 +5873,13 @@
         <v>21</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="L382" t="s">
         <v>21</v>
       </c>
       <c r="M382" s="2" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.2">
@@ -5880,13 +5887,13 @@
         <v>22</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="L383" t="s">
         <v>22</v>
       </c>
       <c r="M383" s="2" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.2">
@@ -6023,13 +6030,13 @@
         <v>31</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="L394" t="s">
         <v>31</v>
       </c>
       <c r="M394" s="2" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="395" spans="1:18" x14ac:dyDescent="0.2">
@@ -6222,18 +6229,22 @@
     </row>
     <row r="405" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A405" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B405" s="5"/>
+        <v>206</v>
+      </c>
+      <c r="B405" s="5">
+        <v>16</v>
+      </c>
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
       <c r="F405" s="4"/>
       <c r="G405" s="4"/>
       <c r="L405" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="M405" s="5"/>
+        <v>206</v>
+      </c>
+      <c r="M405" s="5">
+        <v>15</v>
+      </c>
       <c r="N405" s="4"/>
       <c r="O405" s="4"/>
       <c r="P405" s="4"/>
@@ -6445,7 +6456,7 @@
         <v>17</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C415" s="4"/>
       <c r="D415" s="4"/>
@@ -6456,7 +6467,7 @@
         <v>17</v>
       </c>
       <c r="M415" s="5" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="N415" s="4"/>
       <c r="O415" s="4"/>
@@ -6469,7 +6480,7 @@
         <v>19</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C416" s="4"/>
       <c r="D416" s="4"/>
@@ -6493,7 +6504,7 @@
         <v>20</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C417" s="4"/>
       <c r="D417" s="4"/>
@@ -6504,7 +6515,7 @@
         <v>20</v>
       </c>
       <c r="M417" s="5" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="N417" s="4"/>
       <c r="O417" s="4"/>
@@ -6517,7 +6528,7 @@
         <v>21</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C418" s="4"/>
       <c r="D418" s="4"/>
@@ -6528,7 +6539,7 @@
         <v>21</v>
       </c>
       <c r="M418" s="5" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="N418" s="4"/>
       <c r="O418" s="4"/>
@@ -6541,7 +6552,7 @@
         <v>22</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C419" s="4"/>
       <c r="D419" s="4"/>
@@ -6552,7 +6563,7 @@
         <v>22</v>
       </c>
       <c r="M419" s="5" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="N419" s="4"/>
       <c r="O419" s="4"/>
@@ -6797,7 +6808,7 @@
         <v>31</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C430" s="4"/>
       <c r="D430" s="4"/>
@@ -6808,7 +6819,7 @@
         <v>31</v>
       </c>
       <c r="M430" s="5" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="N430" s="4"/>
       <c r="O430" s="4"/>
@@ -7042,18 +7053,22 @@
     </row>
     <row r="441" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A441" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B441" s="5"/>
+        <v>206</v>
+      </c>
+      <c r="B441" s="5">
+        <v>10</v>
+      </c>
       <c r="C441" s="4"/>
       <c r="D441" s="4"/>
       <c r="E441" s="4"/>
       <c r="F441" s="4"/>
       <c r="G441" s="4"/>
       <c r="L441" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="M441" s="5"/>
+        <v>206</v>
+      </c>
+      <c r="M441" s="5">
+        <v>22</v>
+      </c>
       <c r="N441" s="4"/>
       <c r="O441" s="4"/>
       <c r="P441" s="4"/>
@@ -7265,7 +7280,7 @@
         <v>17</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C451" s="4"/>
       <c r="D451" s="4"/>
@@ -7276,7 +7291,7 @@
         <v>17</v>
       </c>
       <c r="M451" s="5" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="N451" s="4"/>
       <c r="O451" s="4"/>
@@ -7300,7 +7315,7 @@
         <v>19</v>
       </c>
       <c r="M452" s="5" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="N452" s="4"/>
       <c r="O452" s="4"/>
@@ -7313,7 +7328,7 @@
         <v>20</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C453" s="4"/>
       <c r="D453" s="4"/>
@@ -7324,7 +7339,7 @@
         <v>20</v>
       </c>
       <c r="M453" s="5" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="N453" s="4"/>
       <c r="O453" s="4"/>
@@ -7337,7 +7352,7 @@
         <v>21</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C454" s="4"/>
       <c r="D454" s="4"/>
@@ -7348,7 +7363,7 @@
         <v>21</v>
       </c>
       <c r="M454" s="5" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="N454" s="4"/>
       <c r="O454" s="4"/>
@@ -7361,7 +7376,7 @@
         <v>22</v>
       </c>
       <c r="B455" s="5" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C455" s="4"/>
       <c r="D455" s="4"/>
@@ -7372,7 +7387,7 @@
         <v>22</v>
       </c>
       <c r="M455" s="5" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="N455" s="4"/>
       <c r="O455" s="4"/>
@@ -7861,18 +7876,22 @@
     </row>
     <row r="477" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A477" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B477" s="5"/>
+        <v>206</v>
+      </c>
+      <c r="B477" s="5">
+        <v>11</v>
+      </c>
       <c r="C477" s="4"/>
       <c r="D477" s="4"/>
       <c r="E477" s="4"/>
       <c r="F477" s="4"/>
       <c r="G477" s="4"/>
       <c r="L477" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="M477" s="5"/>
+        <v>206</v>
+      </c>
+      <c r="M477" s="5">
+        <v>16</v>
+      </c>
       <c r="N477" s="4"/>
       <c r="O477" s="4"/>
       <c r="P477" s="4"/>
@@ -8084,7 +8103,7 @@
         <v>17</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C487" s="4"/>
       <c r="D487" s="4"/>
@@ -8095,7 +8114,7 @@
         <v>17</v>
       </c>
       <c r="M487" s="5" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="N487" s="4"/>
       <c r="O487" s="4"/>
@@ -8132,7 +8151,7 @@
         <v>20</v>
       </c>
       <c r="B489" s="5" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C489" s="4"/>
       <c r="D489" s="4"/>
@@ -8143,7 +8162,7 @@
         <v>20</v>
       </c>
       <c r="M489" s="5" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="N489" s="4"/>
       <c r="O489" s="4"/>
@@ -8156,7 +8175,7 @@
         <v>21</v>
       </c>
       <c r="B490" s="5" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C490" s="4"/>
       <c r="D490" s="4"/>
@@ -8167,7 +8186,7 @@
         <v>21</v>
       </c>
       <c r="M490" s="5" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="N490" s="4"/>
       <c r="O490" s="4"/>
@@ -8180,7 +8199,7 @@
         <v>22</v>
       </c>
       <c r="B491" s="5" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C491" s="4"/>
       <c r="D491" s="4"/>
@@ -8191,7 +8210,7 @@
         <v>22</v>
       </c>
       <c r="M491" s="5" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="N491" s="4"/>
       <c r="O491" s="4"/>
@@ -8388,7 +8407,7 @@
         <v>29</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C500" s="4"/>
       <c r="D500" s="4"/>
@@ -8436,7 +8455,7 @@
         <v>31</v>
       </c>
       <c r="B502" s="5" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C502" s="4"/>
       <c r="D502" s="4"/>
@@ -8681,7 +8700,7 @@
     </row>
     <row r="513" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A513" s="4" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B513" s="5"/>
       <c r="C513" s="4"/>
@@ -8690,7 +8709,7 @@
       <c r="F513" s="4"/>
       <c r="G513" s="4"/>
       <c r="L513" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M513" s="5"/>
       <c r="N513" s="4"/>
@@ -8904,7 +8923,7 @@
         <v>17</v>
       </c>
       <c r="B523" s="5" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C523" s="4"/>
       <c r="D523" s="4"/>
@@ -8915,7 +8934,7 @@
         <v>17</v>
       </c>
       <c r="M523" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N523" s="4"/>
       <c r="O523" s="4"/>
@@ -8928,7 +8947,7 @@
         <v>19</v>
       </c>
       <c r="B524" s="5" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C524" s="4"/>
       <c r="D524" s="4"/>
@@ -8952,7 +8971,7 @@
         <v>20</v>
       </c>
       <c r="B525" s="5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C525" s="4"/>
       <c r="D525" s="4"/>
@@ -8963,7 +8982,7 @@
         <v>20</v>
       </c>
       <c r="M525" s="5" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="N525" s="4"/>
       <c r="O525" s="4"/>
@@ -8976,7 +8995,7 @@
         <v>21</v>
       </c>
       <c r="B526" s="5" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C526" s="4"/>
       <c r="D526" s="4"/>
@@ -8987,7 +9006,7 @@
         <v>21</v>
       </c>
       <c r="M526" s="5" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="N526" s="4"/>
       <c r="O526" s="4"/>
@@ -9000,7 +9019,7 @@
         <v>22</v>
       </c>
       <c r="B527" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C527" s="4"/>
       <c r="D527" s="4"/>
@@ -9011,7 +9030,7 @@
         <v>22</v>
       </c>
       <c r="M527" s="5" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="N527" s="4"/>
       <c r="O527" s="4"/>
@@ -9501,18 +9520,22 @@
     </row>
     <row r="549" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A549" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B549" s="5"/>
+        <v>206</v>
+      </c>
+      <c r="B549" s="5">
+        <v>20</v>
+      </c>
       <c r="C549" s="4"/>
       <c r="D549" s="4"/>
       <c r="E549" s="4"/>
       <c r="F549" s="4"/>
       <c r="G549" s="4"/>
       <c r="L549" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="M549" s="5"/>
+        <v>206</v>
+      </c>
+      <c r="M549" s="5">
+        <v>17</v>
+      </c>
       <c r="N549" s="4"/>
       <c r="O549" s="4"/>
       <c r="P549" s="4"/>
@@ -9724,7 +9747,7 @@
         <v>17</v>
       </c>
       <c r="B559" s="5" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C559" s="4"/>
       <c r="D559" s="4"/>
@@ -9735,7 +9758,7 @@
         <v>17</v>
       </c>
       <c r="M559" s="5" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="N559" s="4"/>
       <c r="O559" s="4"/>
@@ -9759,7 +9782,7 @@
         <v>19</v>
       </c>
       <c r="M560" s="5" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="N560" s="4"/>
       <c r="O560" s="4"/>
@@ -9772,7 +9795,7 @@
         <v>20</v>
       </c>
       <c r="B561" s="5" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C561" s="4"/>
       <c r="D561" s="4"/>
@@ -9783,7 +9806,7 @@
         <v>20</v>
       </c>
       <c r="M561" s="5" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="N561" s="4"/>
       <c r="O561" s="4"/>
@@ -9796,7 +9819,7 @@
         <v>21</v>
       </c>
       <c r="B562" s="5" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C562" s="4"/>
       <c r="D562" s="4"/>
@@ -9807,7 +9830,7 @@
         <v>21</v>
       </c>
       <c r="M562" s="5" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="N562" s="4"/>
       <c r="O562" s="4"/>
@@ -9820,7 +9843,7 @@
         <v>22</v>
       </c>
       <c r="B563" s="5" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C563" s="4"/>
       <c r="D563" s="4"/>
@@ -9831,7 +9854,7 @@
         <v>22</v>
       </c>
       <c r="M563" s="5" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="N563" s="4"/>
       <c r="O563" s="4"/>
@@ -10087,7 +10110,7 @@
         <v>31</v>
       </c>
       <c r="M574" s="5" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="N574" s="4"/>
       <c r="O574" s="4"/>
@@ -10321,18 +10344,22 @@
     </row>
     <row r="585" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A585" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B585" s="5"/>
+        <v>206</v>
+      </c>
+      <c r="B585" s="5">
+        <v>36</v>
+      </c>
       <c r="C585" s="4"/>
       <c r="D585" s="4"/>
       <c r="E585" s="4"/>
       <c r="F585" s="4"/>
       <c r="G585" s="4"/>
       <c r="L585" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="M585" s="5"/>
+        <v>206</v>
+      </c>
+      <c r="M585" s="5">
+        <v>36</v>
+      </c>
       <c r="N585" s="4"/>
       <c r="O585" s="4"/>
       <c r="P585" s="4"/>
@@ -10544,7 +10571,7 @@
         <v>17</v>
       </c>
       <c r="B595" s="5" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C595" s="4"/>
       <c r="D595" s="4"/>
@@ -10555,7 +10582,7 @@
         <v>17</v>
       </c>
       <c r="M595" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N595" s="4"/>
       <c r="O595" s="4"/>
@@ -10579,7 +10606,7 @@
         <v>19</v>
       </c>
       <c r="M596" s="5" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="N596" s="4"/>
       <c r="O596" s="4"/>
@@ -10592,7 +10619,7 @@
         <v>20</v>
       </c>
       <c r="B597" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C597" s="4"/>
       <c r="D597" s="4"/>
@@ -10603,7 +10630,7 @@
         <v>20</v>
       </c>
       <c r="M597" s="5" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="N597" s="4"/>
       <c r="O597" s="4"/>
@@ -10616,7 +10643,7 @@
         <v>21</v>
       </c>
       <c r="B598" s="5" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C598" s="4"/>
       <c r="D598" s="4"/>
@@ -10627,7 +10654,7 @@
         <v>21</v>
       </c>
       <c r="M598" s="5" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="N598" s="4"/>
       <c r="O598" s="4"/>
@@ -10640,7 +10667,7 @@
         <v>22</v>
       </c>
       <c r="B599" s="5" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C599" s="4"/>
       <c r="D599" s="4"/>
@@ -10651,7 +10678,7 @@
         <v>22</v>
       </c>
       <c r="M599" s="5" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="N599" s="4"/>
       <c r="O599" s="4"/>
@@ -10907,7 +10934,7 @@
         <v>31</v>
       </c>
       <c r="M610" s="5" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="N610" s="4"/>
       <c r="O610" s="4"/>
@@ -11141,18 +11168,22 @@
     </row>
     <row r="621" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A621" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B621" s="5"/>
+        <v>206</v>
+      </c>
+      <c r="B621" s="5">
+        <v>21</v>
+      </c>
       <c r="C621" s="4"/>
       <c r="D621" s="4"/>
       <c r="E621" s="4"/>
       <c r="F621" s="4"/>
       <c r="G621" s="4"/>
       <c r="L621" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="M621" s="5"/>
+        <v>206</v>
+      </c>
+      <c r="M621" s="5">
+        <v>19</v>
+      </c>
       <c r="N621" s="4"/>
       <c r="O621" s="4"/>
       <c r="P621" s="4"/>
@@ -11364,7 +11395,7 @@
         <v>17</v>
       </c>
       <c r="B631" s="5" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C631" s="4"/>
       <c r="D631" s="4"/>
@@ -11375,7 +11406,7 @@
         <v>17</v>
       </c>
       <c r="M631" s="5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="N631" s="4"/>
       <c r="O631" s="4"/>
@@ -11412,7 +11443,7 @@
         <v>20</v>
       </c>
       <c r="B633" s="5" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="C633" s="4"/>
       <c r="D633" s="4"/>
@@ -11423,7 +11454,7 @@
         <v>20</v>
       </c>
       <c r="M633" s="5" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="N633" s="4"/>
       <c r="O633" s="4"/>
@@ -11436,7 +11467,7 @@
         <v>21</v>
       </c>
       <c r="B634" s="5" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C634" s="4"/>
       <c r="D634" s="4"/>
@@ -11447,7 +11478,7 @@
         <v>21</v>
       </c>
       <c r="M634" s="5" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="N634" s="4"/>
       <c r="O634" s="4"/>
@@ -11460,7 +11491,7 @@
         <v>22</v>
       </c>
       <c r="B635" s="5" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C635" s="4"/>
       <c r="D635" s="4"/>
@@ -11471,7 +11502,7 @@
         <v>22</v>
       </c>
       <c r="M635" s="5" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="N635" s="4"/>
       <c r="O635" s="4"/>
@@ -11727,7 +11758,7 @@
         <v>31</v>
       </c>
       <c r="M646" s="5" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="N646" s="4"/>
       <c r="O646" s="4"/>
